--- a/helpers/board.xlsx
+++ b/helpers/board.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -396,8 +396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O18" sqref="A18:O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,7 +599,7 @@
         <v>lclLevelMatrix.push(Cell(0,0,'wall'));</v>
       </c>
       <c r="AG2" t="str">
-        <f t="shared" ref="AG2:BV17" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",D$1),"#Y",$A2),"#CELL_TYPE", IF(D2="xx","wall","dot"))</f>
+        <f t="shared" ref="AG2:BF2" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",D$1),"#Y",$A2),"#CELL_TYPE", IF(D2="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(2,0,'wall'));</v>
       </c>
       <c r="AH2" t="str">
@@ -792,111 +792,111 @@
         <v>0</v>
       </c>
       <c r="AE3" t="str">
-        <f t="shared" ref="AE3:BF31" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",B$1),"#Y",$A3),"#CELL_TYPE", IF(B3="xx","wall","dot"))</f>
+        <f t="shared" ref="AE3:AE31" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",B$1),"#Y",$A3),"#CELL_TYPE", IF(B3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(0,1,'wall'));</v>
       </c>
       <c r="AF3" t="str">
-        <f t="shared" ref="AF3:BF31" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",C$1),"#Y",$A3),"#CELL_TYPE", IF(C3="xx","wall","dot"))</f>
+        <f t="shared" ref="AF3:AF31" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",C$1),"#Y",$A3),"#CELL_TYPE", IF(C3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(1,1,'dot'));</v>
       </c>
       <c r="AG3" t="str">
-        <f t="shared" ref="AG3:BF31" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",D$1),"#Y",$A3),"#CELL_TYPE", IF(D3="xx","wall","dot"))</f>
+        <f t="shared" ref="AG3:AG31" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",D$1),"#Y",$A3),"#CELL_TYPE", IF(D3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(2,1,'dot'));</v>
       </c>
       <c r="AH3" t="str">
-        <f t="shared" ref="AH3:BF31" si="4">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",E$1),"#Y",$A3),"#CELL_TYPE", IF(E3="xx","wall","dot"))</f>
+        <f t="shared" ref="AH3:AH31" si="4">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",E$1),"#Y",$A3),"#CELL_TYPE", IF(E3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(3,1,'dot'));</v>
       </c>
       <c r="AI3" t="str">
-        <f t="shared" ref="AI3:BF31" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",F$1),"#Y",$A3),"#CELL_TYPE", IF(F3="xx","wall","dot"))</f>
+        <f t="shared" ref="AI3:AI31" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",F$1),"#Y",$A3),"#CELL_TYPE", IF(F3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(4,1,'dot'));</v>
       </c>
       <c r="AJ3" t="str">
-        <f t="shared" ref="AJ3:BF31" si="6">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",G$1),"#Y",$A3),"#CELL_TYPE", IF(G3="xx","wall","dot"))</f>
+        <f t="shared" ref="AJ3:AJ31" si="6">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",G$1),"#Y",$A3),"#CELL_TYPE", IF(G3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(5,1,'dot'));</v>
       </c>
       <c r="AK3" t="str">
-        <f t="shared" ref="AK3:BF31" si="7">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",H$1),"#Y",$A3),"#CELL_TYPE", IF(H3="xx","wall","dot"))</f>
+        <f t="shared" ref="AK3:AK31" si="7">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",H$1),"#Y",$A3),"#CELL_TYPE", IF(H3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(6,1,'dot'));</v>
       </c>
       <c r="AL3" t="str">
-        <f t="shared" ref="AL3:BF31" si="8">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",I$1),"#Y",$A3),"#CELL_TYPE", IF(I3="xx","wall","dot"))</f>
+        <f t="shared" ref="AL3:AL31" si="8">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",I$1),"#Y",$A3),"#CELL_TYPE", IF(I3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(7,1,'dot'));</v>
       </c>
       <c r="AM3" t="str">
-        <f t="shared" ref="AM3:BF31" si="9">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",J$1),"#Y",$A3),"#CELL_TYPE", IF(J3="xx","wall","dot"))</f>
+        <f t="shared" ref="AM3:AM31" si="9">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",J$1),"#Y",$A3),"#CELL_TYPE", IF(J3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(8,1,'dot'));</v>
       </c>
       <c r="AN3" t="str">
-        <f t="shared" ref="AN3:BF31" si="10">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",K$1),"#Y",$A3),"#CELL_TYPE", IF(K3="xx","wall","dot"))</f>
+        <f t="shared" ref="AN3:AN31" si="10">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",K$1),"#Y",$A3),"#CELL_TYPE", IF(K3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(9,1,'dot'));</v>
       </c>
       <c r="AO3" t="str">
-        <f t="shared" ref="AO3:BF31" si="11">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",L$1),"#Y",$A3),"#CELL_TYPE", IF(L3="xx","wall","dot"))</f>
+        <f t="shared" ref="AO3:AO31" si="11">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",L$1),"#Y",$A3),"#CELL_TYPE", IF(L3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(10,1,'dot'));</v>
       </c>
       <c r="AP3" t="str">
-        <f t="shared" ref="AP3:BF31" si="12">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",M$1),"#Y",$A3),"#CELL_TYPE", IF(M3="xx","wall","dot"))</f>
+        <f t="shared" ref="AP3:AP31" si="12">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",M$1),"#Y",$A3),"#CELL_TYPE", IF(M3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(11,1,'dot'));</v>
       </c>
       <c r="AQ3" t="str">
-        <f t="shared" ref="AQ3:BF31" si="13">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",N$1),"#Y",$A3),"#CELL_TYPE", IF(N3="xx","wall","dot"))</f>
+        <f t="shared" ref="AQ3:AQ31" si="13">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",N$1),"#Y",$A3),"#CELL_TYPE", IF(N3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(12,1,'dot'));</v>
       </c>
       <c r="AR3" t="str">
-        <f t="shared" ref="AR3:BF31" si="14">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",O$1),"#Y",$A3),"#CELL_TYPE", IF(O3="xx","wall","dot"))</f>
+        <f t="shared" ref="AR3:AR31" si="14">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",O$1),"#Y",$A3),"#CELL_TYPE", IF(O3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(13,1,'wall'));</v>
       </c>
       <c r="AS3" t="str">
-        <f t="shared" ref="AS3:BF31" si="15">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",P$1),"#Y",$A3),"#CELL_TYPE", IF(P3="xx","wall","dot"))</f>
+        <f t="shared" ref="AS3:AS31" si="15">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",P$1),"#Y",$A3),"#CELL_TYPE", IF(P3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(14,1,'wall'));</v>
       </c>
       <c r="AT3" t="str">
-        <f t="shared" ref="AT3:BF31" si="16">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",Q$1),"#Y",$A3),"#CELL_TYPE", IF(Q3="xx","wall","dot"))</f>
+        <f t="shared" ref="AT3:AT31" si="16">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",Q$1),"#Y",$A3),"#CELL_TYPE", IF(Q3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(15,1,'dot'));</v>
       </c>
       <c r="AU3" t="str">
-        <f t="shared" ref="AU3:BF31" si="17">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",R$1),"#Y",$A3),"#CELL_TYPE", IF(R3="xx","wall","dot"))</f>
+        <f t="shared" ref="AU3:AU31" si="17">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",R$1),"#Y",$A3),"#CELL_TYPE", IF(R3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(16,1,'dot'));</v>
       </c>
       <c r="AV3" t="str">
-        <f t="shared" ref="AV3:BF31" si="18">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",S$1),"#Y",$A3),"#CELL_TYPE", IF(S3="xx","wall","dot"))</f>
+        <f t="shared" ref="AV3:AV31" si="18">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",S$1),"#Y",$A3),"#CELL_TYPE", IF(S3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(17,1,'dot'));</v>
       </c>
       <c r="AW3" t="str">
-        <f t="shared" ref="AW3:BF31" si="19">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",T$1),"#Y",$A3),"#CELL_TYPE", IF(T3="xx","wall","dot"))</f>
+        <f t="shared" ref="AW3:AW31" si="19">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",T$1),"#Y",$A3),"#CELL_TYPE", IF(T3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(18,1,'dot'));</v>
       </c>
       <c r="AX3" t="str">
-        <f t="shared" ref="AX3:BF31" si="20">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",U$1),"#Y",$A3),"#CELL_TYPE", IF(U3="xx","wall","dot"))</f>
+        <f t="shared" ref="AX3:AX31" si="20">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",U$1),"#Y",$A3),"#CELL_TYPE", IF(U3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(19,1,'dot'));</v>
       </c>
       <c r="AY3" t="str">
-        <f t="shared" ref="AY3:BF31" si="21">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",V$1),"#Y",$A3),"#CELL_TYPE", IF(V3="xx","wall","dot"))</f>
+        <f t="shared" ref="AY3:AY31" si="21">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",V$1),"#Y",$A3),"#CELL_TYPE", IF(V3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(20,1,'dot'));</v>
       </c>
       <c r="AZ3" t="str">
-        <f t="shared" ref="AZ3:BF31" si="22">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",W$1),"#Y",$A3),"#CELL_TYPE", IF(W3="xx","wall","dot"))</f>
+        <f t="shared" ref="AZ3:AZ31" si="22">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",W$1),"#Y",$A3),"#CELL_TYPE", IF(W3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(21,1,'dot'));</v>
       </c>
       <c r="BA3" t="str">
-        <f t="shared" ref="BA3:BF31" si="23">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",X$1),"#Y",$A3),"#CELL_TYPE", IF(X3="xx","wall","dot"))</f>
+        <f t="shared" ref="BA3:BA31" si="23">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",X$1),"#Y",$A3),"#CELL_TYPE", IF(X3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(22,1,'dot'));</v>
       </c>
       <c r="BB3" t="str">
-        <f t="shared" ref="BB3:BF31" si="24">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",Y$1),"#Y",$A3),"#CELL_TYPE", IF(Y3="xx","wall","dot"))</f>
+        <f t="shared" ref="BB3:BB31" si="24">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",Y$1),"#Y",$A3),"#CELL_TYPE", IF(Y3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(23,1,'dot'));</v>
       </c>
       <c r="BC3" t="str">
-        <f t="shared" ref="BC3:BF31" si="25">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",Z$1),"#Y",$A3),"#CELL_TYPE", IF(Z3="xx","wall","dot"))</f>
+        <f t="shared" ref="BC3:BC31" si="25">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",Z$1),"#Y",$A3),"#CELL_TYPE", IF(Z3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(24,1,'dot'));</v>
       </c>
       <c r="BD3" t="str">
-        <f t="shared" ref="BD3:BF31" si="26">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",AA$1),"#Y",$A3),"#CELL_TYPE", IF(AA3="xx","wall","dot"))</f>
+        <f t="shared" ref="BD3:BD31" si="26">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",AA$1),"#Y",$A3),"#CELL_TYPE", IF(AA3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(25,1,'dot'));</v>
       </c>
       <c r="BE3" t="str">
-        <f t="shared" ref="BE3:BF31" si="27">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",AB$1),"#Y",$A3),"#CELL_TYPE", IF(AB3="xx","wall","dot"))</f>
+        <f t="shared" ref="BE3:BE31" si="27">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",AB$1),"#Y",$A3),"#CELL_TYPE", IF(AB3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(26,1,'dot'));</v>
       </c>
       <c r="BF3" t="str">
@@ -6654,15 +6654,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -6694,7 +6694,11 @@
         <v>30</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E16" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/helpers/board.xlsx
+++ b/helpers/board.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="10">
   <si>
     <t>xx</t>
   </si>
@@ -53,12 +53,15 @@
   <si>
     <t>y</t>
   </si>
+  <si>
+    <t>LENGTH</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,8 +77,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,8 +98,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -97,11 +119,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -114,6 +199,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -132,7 +232,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -394,21 +494,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF69"/>
+  <dimension ref="A1:BG69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="A18:O18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="26" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12" customWidth="1"/>
-    <col min="58" max="58" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="28" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12" customWidth="1"/>
+    <col min="59" max="59" width="32.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>0</v>
       </c>
@@ -493,20 +594,26 @@
       <c r="AC1">
         <v>27</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>3</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>4</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>5</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="AL1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -594,116 +701,120 @@
       <c r="AC2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",B$1),"#Y",$A2),"#CELL_TYPE", IF(B2="xx","wall","dot"))</f>
+      <c r="AD2">
+        <f>A2*$AM$1</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AG$1,"#X",B$1),"#Y",$A2),"#CELL_TYPE", IF(B2="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(0,0,'wall'));</v>
       </c>
-      <c r="AG2" t="str">
-        <f t="shared" ref="AG2:BF2" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",D$1),"#Y",$A2),"#CELL_TYPE", IF(D2="xx","wall","dot"))</f>
+      <c r="AH2" t="str">
+        <f t="shared" ref="AH2:BG2" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AG$1,"#X",D$1),"#Y",$A2),"#CELL_TYPE", IF(D2="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(2,0,'wall'));</v>
       </c>
-      <c r="AH2" t="str">
+      <c r="AI2" t="str">
         <f t="shared" si="0"/>
         <v>lclLevelMatrix.push(Cell(3,0,'wall'));</v>
       </c>
-      <c r="AI2" t="str">
+      <c r="AJ2" t="str">
         <f t="shared" si="0"/>
         <v>lclLevelMatrix.push(Cell(4,0,'wall'));</v>
       </c>
-      <c r="AJ2" t="str">
+      <c r="AK2" t="str">
         <f t="shared" si="0"/>
         <v>lclLevelMatrix.push(Cell(5,0,'wall'));</v>
       </c>
-      <c r="AK2" t="str">
+      <c r="AL2" t="str">
         <f t="shared" si="0"/>
         <v>lclLevelMatrix.push(Cell(6,0,'wall'));</v>
       </c>
-      <c r="AL2" t="str">
+      <c r="AM2" t="str">
         <f t="shared" si="0"/>
         <v>lclLevelMatrix.push(Cell(7,0,'wall'));</v>
       </c>
-      <c r="AM2" t="str">
+      <c r="AN2" t="str">
         <f t="shared" si="0"/>
         <v>lclLevelMatrix.push(Cell(8,0,'wall'));</v>
       </c>
-      <c r="AN2" t="str">
+      <c r="AO2" t="str">
         <f t="shared" si="0"/>
         <v>lclLevelMatrix.push(Cell(9,0,'wall'));</v>
       </c>
-      <c r="AO2" t="str">
+      <c r="AP2" t="str">
         <f t="shared" si="0"/>
         <v>lclLevelMatrix.push(Cell(10,0,'wall'));</v>
       </c>
-      <c r="AP2" t="str">
+      <c r="AQ2" t="str">
         <f t="shared" si="0"/>
         <v>lclLevelMatrix.push(Cell(11,0,'wall'));</v>
       </c>
-      <c r="AQ2" t="str">
+      <c r="AR2" t="str">
         <f t="shared" si="0"/>
         <v>lclLevelMatrix.push(Cell(12,0,'wall'));</v>
       </c>
-      <c r="AR2" t="str">
+      <c r="AS2" t="str">
         <f t="shared" si="0"/>
         <v>lclLevelMatrix.push(Cell(13,0,'wall'));</v>
       </c>
-      <c r="AS2" t="str">
+      <c r="AT2" t="str">
         <f t="shared" si="0"/>
         <v>lclLevelMatrix.push(Cell(14,0,'wall'));</v>
       </c>
-      <c r="AT2" t="str">
+      <c r="AU2" t="str">
         <f t="shared" si="0"/>
         <v>lclLevelMatrix.push(Cell(15,0,'wall'));</v>
       </c>
-      <c r="AU2" t="str">
+      <c r="AV2" t="str">
         <f t="shared" si="0"/>
         <v>lclLevelMatrix.push(Cell(16,0,'wall'));</v>
       </c>
-      <c r="AV2" t="str">
+      <c r="AW2" t="str">
         <f t="shared" si="0"/>
         <v>lclLevelMatrix.push(Cell(17,0,'wall'));</v>
       </c>
-      <c r="AW2" t="str">
+      <c r="AX2" t="str">
         <f t="shared" si="0"/>
         <v>lclLevelMatrix.push(Cell(18,0,'wall'));</v>
       </c>
-      <c r="AX2" t="str">
+      <c r="AY2" t="str">
         <f t="shared" si="0"/>
         <v>lclLevelMatrix.push(Cell(19,0,'wall'));</v>
       </c>
-      <c r="AY2" t="str">
+      <c r="AZ2" t="str">
         <f t="shared" si="0"/>
         <v>lclLevelMatrix.push(Cell(20,0,'wall'));</v>
       </c>
-      <c r="AZ2" t="str">
+      <c r="BA2" t="str">
         <f t="shared" si="0"/>
         <v>lclLevelMatrix.push(Cell(21,0,'wall'));</v>
       </c>
-      <c r="BA2" t="str">
+      <c r="BB2" t="str">
         <f t="shared" si="0"/>
         <v>lclLevelMatrix.push(Cell(22,0,'wall'));</v>
       </c>
-      <c r="BB2" t="str">
+      <c r="BC2" t="str">
         <f t="shared" si="0"/>
         <v>lclLevelMatrix.push(Cell(23,0,'wall'));</v>
       </c>
-      <c r="BC2" t="str">
+      <c r="BD2" t="str">
         <f t="shared" si="0"/>
         <v>lclLevelMatrix.push(Cell(24,0,'wall'));</v>
       </c>
-      <c r="BD2" t="str">
+      <c r="BE2" t="str">
         <f t="shared" si="0"/>
         <v>lclLevelMatrix.push(Cell(25,0,'wall'));</v>
       </c>
-      <c r="BE2" t="str">
+      <c r="BF2" t="str">
         <f t="shared" si="0"/>
         <v>lclLevelMatrix.push(Cell(26,0,'wall'));</v>
       </c>
-      <c r="BF2" t="str">
+      <c r="BG2" t="str">
         <f t="shared" si="0"/>
         <v>lclLevelMatrix.push(Cell(27,0,'wall'));</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -791,120 +902,124 @@
       <c r="AC3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE3" t="str">
-        <f t="shared" ref="AE3:AE31" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",B$1),"#Y",$A3),"#CELL_TYPE", IF(B3="xx","wall","dot"))</f>
+      <c r="AD3">
+        <f t="shared" ref="AD3:AD31" si="1">A3*$AM$1</f>
+        <v>20</v>
+      </c>
+      <c r="AF3" t="str">
+        <f t="shared" ref="AF3:AF31" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AG$1,"#X",B$1),"#Y",$A3),"#CELL_TYPE", IF(B3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(0,1,'wall'));</v>
       </c>
-      <c r="AF3" t="str">
-        <f t="shared" ref="AF3:AF31" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",C$1),"#Y",$A3),"#CELL_TYPE", IF(C3="xx","wall","dot"))</f>
+      <c r="AG3" t="str">
+        <f t="shared" ref="AG3:AG31" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AG$1,"#X",C$1),"#Y",$A3),"#CELL_TYPE", IF(C3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(1,1,'dot'));</v>
       </c>
-      <c r="AG3" t="str">
-        <f t="shared" ref="AG3:AG31" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",D$1),"#Y",$A3),"#CELL_TYPE", IF(D3="xx","wall","dot"))</f>
+      <c r="AH3" t="str">
+        <f t="shared" ref="AH3:AH31" si="4">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AG$1,"#X",D$1),"#Y",$A3),"#CELL_TYPE", IF(D3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(2,1,'dot'));</v>
       </c>
-      <c r="AH3" t="str">
-        <f t="shared" ref="AH3:AH31" si="4">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",E$1),"#Y",$A3),"#CELL_TYPE", IF(E3="xx","wall","dot"))</f>
+      <c r="AI3" t="str">
+        <f t="shared" ref="AI3:AI31" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AG$1,"#X",E$1),"#Y",$A3),"#CELL_TYPE", IF(E3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(3,1,'dot'));</v>
       </c>
-      <c r="AI3" t="str">
-        <f t="shared" ref="AI3:AI31" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",F$1),"#Y",$A3),"#CELL_TYPE", IF(F3="xx","wall","dot"))</f>
+      <c r="AJ3" t="str">
+        <f t="shared" ref="AJ3:AJ31" si="6">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AG$1,"#X",F$1),"#Y",$A3),"#CELL_TYPE", IF(F3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(4,1,'dot'));</v>
       </c>
-      <c r="AJ3" t="str">
-        <f t="shared" ref="AJ3:AJ31" si="6">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",G$1),"#Y",$A3),"#CELL_TYPE", IF(G3="xx","wall","dot"))</f>
+      <c r="AK3" t="str">
+        <f t="shared" ref="AK3:AK31" si="7">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AG$1,"#X",G$1),"#Y",$A3),"#CELL_TYPE", IF(G3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(5,1,'dot'));</v>
       </c>
-      <c r="AK3" t="str">
-        <f t="shared" ref="AK3:AK31" si="7">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",H$1),"#Y",$A3),"#CELL_TYPE", IF(H3="xx","wall","dot"))</f>
+      <c r="AL3" t="str">
+        <f t="shared" ref="AL3:AL31" si="8">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AG$1,"#X",H$1),"#Y",$A3),"#CELL_TYPE", IF(H3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(6,1,'dot'));</v>
       </c>
-      <c r="AL3" t="str">
-        <f t="shared" ref="AL3:AL31" si="8">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",I$1),"#Y",$A3),"#CELL_TYPE", IF(I3="xx","wall","dot"))</f>
+      <c r="AM3" t="str">
+        <f t="shared" ref="AM3:AM31" si="9">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AG$1,"#X",I$1),"#Y",$A3),"#CELL_TYPE", IF(I3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(7,1,'dot'));</v>
       </c>
-      <c r="AM3" t="str">
-        <f t="shared" ref="AM3:AM31" si="9">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",J$1),"#Y",$A3),"#CELL_TYPE", IF(J3="xx","wall","dot"))</f>
+      <c r="AN3" t="str">
+        <f t="shared" ref="AN3:AN31" si="10">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AG$1,"#X",J$1),"#Y",$A3),"#CELL_TYPE", IF(J3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(8,1,'dot'));</v>
       </c>
-      <c r="AN3" t="str">
-        <f t="shared" ref="AN3:AN31" si="10">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",K$1),"#Y",$A3),"#CELL_TYPE", IF(K3="xx","wall","dot"))</f>
+      <c r="AO3" t="str">
+        <f t="shared" ref="AO3:AO31" si="11">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AG$1,"#X",K$1),"#Y",$A3),"#CELL_TYPE", IF(K3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(9,1,'dot'));</v>
       </c>
-      <c r="AO3" t="str">
-        <f t="shared" ref="AO3:AO31" si="11">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",L$1),"#Y",$A3),"#CELL_TYPE", IF(L3="xx","wall","dot"))</f>
+      <c r="AP3" t="str">
+        <f t="shared" ref="AP3:AP31" si="12">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AG$1,"#X",L$1),"#Y",$A3),"#CELL_TYPE", IF(L3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(10,1,'dot'));</v>
       </c>
-      <c r="AP3" t="str">
-        <f t="shared" ref="AP3:AP31" si="12">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",M$1),"#Y",$A3),"#CELL_TYPE", IF(M3="xx","wall","dot"))</f>
+      <c r="AQ3" t="str">
+        <f t="shared" ref="AQ3:AQ31" si="13">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AG$1,"#X",M$1),"#Y",$A3),"#CELL_TYPE", IF(M3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(11,1,'dot'));</v>
       </c>
-      <c r="AQ3" t="str">
-        <f t="shared" ref="AQ3:AQ31" si="13">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",N$1),"#Y",$A3),"#CELL_TYPE", IF(N3="xx","wall","dot"))</f>
+      <c r="AR3" t="str">
+        <f t="shared" ref="AR3:AR31" si="14">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AG$1,"#X",N$1),"#Y",$A3),"#CELL_TYPE", IF(N3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(12,1,'dot'));</v>
       </c>
-      <c r="AR3" t="str">
-        <f t="shared" ref="AR3:AR31" si="14">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",O$1),"#Y",$A3),"#CELL_TYPE", IF(O3="xx","wall","dot"))</f>
+      <c r="AS3" t="str">
+        <f t="shared" ref="AS3:AS31" si="15">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AG$1,"#X",O$1),"#Y",$A3),"#CELL_TYPE", IF(O3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(13,1,'wall'));</v>
       </c>
-      <c r="AS3" t="str">
-        <f t="shared" ref="AS3:AS31" si="15">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",P$1),"#Y",$A3),"#CELL_TYPE", IF(P3="xx","wall","dot"))</f>
+      <c r="AT3" t="str">
+        <f t="shared" ref="AT3:AT31" si="16">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AG$1,"#X",P$1),"#Y",$A3),"#CELL_TYPE", IF(P3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(14,1,'wall'));</v>
       </c>
-      <c r="AT3" t="str">
-        <f t="shared" ref="AT3:AT31" si="16">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",Q$1),"#Y",$A3),"#CELL_TYPE", IF(Q3="xx","wall","dot"))</f>
+      <c r="AU3" t="str">
+        <f t="shared" ref="AU3:AU31" si="17">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AG$1,"#X",Q$1),"#Y",$A3),"#CELL_TYPE", IF(Q3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(15,1,'dot'));</v>
       </c>
-      <c r="AU3" t="str">
-        <f t="shared" ref="AU3:AU31" si="17">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",R$1),"#Y",$A3),"#CELL_TYPE", IF(R3="xx","wall","dot"))</f>
+      <c r="AV3" t="str">
+        <f t="shared" ref="AV3:AV31" si="18">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AG$1,"#X",R$1),"#Y",$A3),"#CELL_TYPE", IF(R3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(16,1,'dot'));</v>
       </c>
-      <c r="AV3" t="str">
-        <f t="shared" ref="AV3:AV31" si="18">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",S$1),"#Y",$A3),"#CELL_TYPE", IF(S3="xx","wall","dot"))</f>
+      <c r="AW3" t="str">
+        <f t="shared" ref="AW3:AW31" si="19">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AG$1,"#X",S$1),"#Y",$A3),"#CELL_TYPE", IF(S3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(17,1,'dot'));</v>
       </c>
-      <c r="AW3" t="str">
-        <f t="shared" ref="AW3:AW31" si="19">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",T$1),"#Y",$A3),"#CELL_TYPE", IF(T3="xx","wall","dot"))</f>
+      <c r="AX3" t="str">
+        <f t="shared" ref="AX3:AX31" si="20">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AG$1,"#X",T$1),"#Y",$A3),"#CELL_TYPE", IF(T3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(18,1,'dot'));</v>
       </c>
-      <c r="AX3" t="str">
-        <f t="shared" ref="AX3:AX31" si="20">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",U$1),"#Y",$A3),"#CELL_TYPE", IF(U3="xx","wall","dot"))</f>
+      <c r="AY3" t="str">
+        <f t="shared" ref="AY3:AY31" si="21">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AG$1,"#X",U$1),"#Y",$A3),"#CELL_TYPE", IF(U3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(19,1,'dot'));</v>
       </c>
-      <c r="AY3" t="str">
-        <f t="shared" ref="AY3:AY31" si="21">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",V$1),"#Y",$A3),"#CELL_TYPE", IF(V3="xx","wall","dot"))</f>
+      <c r="AZ3" t="str">
+        <f t="shared" ref="AZ3:AZ31" si="22">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AG$1,"#X",V$1),"#Y",$A3),"#CELL_TYPE", IF(V3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(20,1,'dot'));</v>
       </c>
-      <c r="AZ3" t="str">
-        <f t="shared" ref="AZ3:AZ31" si="22">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",W$1),"#Y",$A3),"#CELL_TYPE", IF(W3="xx","wall","dot"))</f>
+      <c r="BA3" t="str">
+        <f t="shared" ref="BA3:BA31" si="23">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AG$1,"#X",W$1),"#Y",$A3),"#CELL_TYPE", IF(W3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(21,1,'dot'));</v>
       </c>
-      <c r="BA3" t="str">
-        <f t="shared" ref="BA3:BA31" si="23">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",X$1),"#Y",$A3),"#CELL_TYPE", IF(X3="xx","wall","dot"))</f>
+      <c r="BB3" t="str">
+        <f t="shared" ref="BB3:BB31" si="24">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AG$1,"#X",X$1),"#Y",$A3),"#CELL_TYPE", IF(X3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(22,1,'dot'));</v>
       </c>
-      <c r="BB3" t="str">
-        <f t="shared" ref="BB3:BB31" si="24">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",Y$1),"#Y",$A3),"#CELL_TYPE", IF(Y3="xx","wall","dot"))</f>
+      <c r="BC3" t="str">
+        <f t="shared" ref="BC3:BC31" si="25">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AG$1,"#X",Y$1),"#Y",$A3),"#CELL_TYPE", IF(Y3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(23,1,'dot'));</v>
       </c>
-      <c r="BC3" t="str">
-        <f t="shared" ref="BC3:BC31" si="25">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",Z$1),"#Y",$A3),"#CELL_TYPE", IF(Z3="xx","wall","dot"))</f>
+      <c r="BD3" t="str">
+        <f t="shared" ref="BD3:BD31" si="26">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AG$1,"#X",Z$1),"#Y",$A3),"#CELL_TYPE", IF(Z3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(24,1,'dot'));</v>
       </c>
-      <c r="BD3" t="str">
-        <f t="shared" ref="BD3:BD31" si="26">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",AA$1),"#Y",$A3),"#CELL_TYPE", IF(AA3="xx","wall","dot"))</f>
+      <c r="BE3" t="str">
+        <f t="shared" ref="BE3:BE31" si="27">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AG$1,"#X",AA$1),"#Y",$A3),"#CELL_TYPE", IF(AA3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(25,1,'dot'));</v>
       </c>
-      <c r="BE3" t="str">
-        <f t="shared" ref="BE3:BE31" si="27">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",AB$1),"#Y",$A3),"#CELL_TYPE", IF(AB3="xx","wall","dot"))</f>
+      <c r="BF3" t="str">
+        <f t="shared" ref="BF3:BF31" si="28">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AG$1,"#X",AB$1),"#Y",$A3),"#CELL_TYPE", IF(AB3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(26,1,'dot'));</v>
       </c>
-      <c r="BF3" t="str">
-        <f t="shared" ref="BF3:BF31" si="28">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AF$1,"#X",AC$1),"#Y",$A3),"#CELL_TYPE", IF(AC3="xx","wall","dot"))</f>
+      <c r="BG3" t="str">
+        <f t="shared" ref="BG3:BG31" si="29">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($AG$1,"#X",AC$1),"#Y",$A3),"#CELL_TYPE", IF(AC3="xx","wall","dot"))</f>
         <v>lclLevelMatrix.push(Cell(27,1,'wall'));</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -992,120 +1107,124 @@
       <c r="AC4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE4" t="str">
+      <c r="AD4">
         <f t="shared" si="1"/>
-        <v>lclLevelMatrix.push(Cell(0,2,'wall'));</v>
+        <v>40</v>
       </c>
       <c r="AF4" t="str">
         <f t="shared" si="2"/>
-        <v>lclLevelMatrix.push(Cell(1,2,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(0,2,'wall'));</v>
       </c>
       <c r="AG4" t="str">
         <f t="shared" si="3"/>
-        <v>lclLevelMatrix.push(Cell(2,2,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(1,2,'dot'));</v>
       </c>
       <c r="AH4" t="str">
         <f t="shared" si="4"/>
-        <v>lclLevelMatrix.push(Cell(3,2,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(2,2,'wall'));</v>
       </c>
       <c r="AI4" t="str">
         <f t="shared" si="5"/>
-        <v>lclLevelMatrix.push(Cell(4,2,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(3,2,'wall'));</v>
       </c>
       <c r="AJ4" t="str">
         <f t="shared" si="6"/>
-        <v>lclLevelMatrix.push(Cell(5,2,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(4,2,'wall'));</v>
       </c>
       <c r="AK4" t="str">
         <f t="shared" si="7"/>
-        <v>lclLevelMatrix.push(Cell(6,2,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(5,2,'wall'));</v>
       </c>
       <c r="AL4" t="str">
         <f t="shared" si="8"/>
-        <v>lclLevelMatrix.push(Cell(7,2,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(6,2,'dot'));</v>
       </c>
       <c r="AM4" t="str">
         <f t="shared" si="9"/>
-        <v>lclLevelMatrix.push(Cell(8,2,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(7,2,'wall'));</v>
       </c>
       <c r="AN4" t="str">
         <f t="shared" si="10"/>
-        <v>lclLevelMatrix.push(Cell(9,2,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(8,2,'wall'));</v>
       </c>
       <c r="AO4" t="str">
         <f t="shared" si="11"/>
-        <v>lclLevelMatrix.push(Cell(10,2,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(9,2,'wall'));</v>
       </c>
       <c r="AP4" t="str">
         <f t="shared" si="12"/>
-        <v>lclLevelMatrix.push(Cell(11,2,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(10,2,'wall'));</v>
       </c>
       <c r="AQ4" t="str">
         <f t="shared" si="13"/>
-        <v>lclLevelMatrix.push(Cell(12,2,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(11,2,'wall'));</v>
       </c>
       <c r="AR4" t="str">
         <f t="shared" si="14"/>
-        <v>lclLevelMatrix.push(Cell(13,2,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(12,2,'dot'));</v>
       </c>
       <c r="AS4" t="str">
         <f t="shared" si="15"/>
-        <v>lclLevelMatrix.push(Cell(14,2,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(13,2,'wall'));</v>
       </c>
       <c r="AT4" t="str">
         <f t="shared" si="16"/>
-        <v>lclLevelMatrix.push(Cell(15,2,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(14,2,'wall'));</v>
       </c>
       <c r="AU4" t="str">
         <f t="shared" si="17"/>
-        <v>lclLevelMatrix.push(Cell(16,2,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(15,2,'dot'));</v>
       </c>
       <c r="AV4" t="str">
         <f t="shared" si="18"/>
-        <v>lclLevelMatrix.push(Cell(17,2,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(16,2,'wall'));</v>
       </c>
       <c r="AW4" t="str">
         <f t="shared" si="19"/>
-        <v>lclLevelMatrix.push(Cell(18,2,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(17,2,'wall'));</v>
       </c>
       <c r="AX4" t="str">
         <f t="shared" si="20"/>
-        <v>lclLevelMatrix.push(Cell(19,2,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(18,2,'wall'));</v>
       </c>
       <c r="AY4" t="str">
         <f t="shared" si="21"/>
-        <v>lclLevelMatrix.push(Cell(20,2,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(19,2,'wall'));</v>
       </c>
       <c r="AZ4" t="str">
         <f t="shared" si="22"/>
-        <v>lclLevelMatrix.push(Cell(21,2,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(20,2,'wall'));</v>
       </c>
       <c r="BA4" t="str">
         <f t="shared" si="23"/>
-        <v>lclLevelMatrix.push(Cell(22,2,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(21,2,'dot'));</v>
       </c>
       <c r="BB4" t="str">
         <f t="shared" si="24"/>
-        <v>lclLevelMatrix.push(Cell(23,2,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(22,2,'wall'));</v>
       </c>
       <c r="BC4" t="str">
         <f t="shared" si="25"/>
-        <v>lclLevelMatrix.push(Cell(24,2,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(23,2,'wall'));</v>
       </c>
       <c r="BD4" t="str">
         <f t="shared" si="26"/>
-        <v>lclLevelMatrix.push(Cell(25,2,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(24,2,'wall'));</v>
       </c>
       <c r="BE4" t="str">
         <f t="shared" si="27"/>
-        <v>lclLevelMatrix.push(Cell(26,2,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(25,2,'wall'));</v>
       </c>
       <c r="BF4" t="str">
         <f t="shared" si="28"/>
+        <v>lclLevelMatrix.push(Cell(26,2,'dot'));</v>
+      </c>
+      <c r="BG4" t="str">
+        <f t="shared" si="29"/>
         <v>lclLevelMatrix.push(Cell(27,2,'wall'));</v>
       </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1193,120 +1312,124 @@
       <c r="AC5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE5" t="str">
+      <c r="AD5">
         <f t="shared" si="1"/>
-        <v>lclLevelMatrix.push(Cell(0,3,'wall'));</v>
+        <v>60</v>
       </c>
       <c r="AF5" t="str">
         <f t="shared" si="2"/>
-        <v>lclLevelMatrix.push(Cell(1,3,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(0,3,'wall'));</v>
       </c>
       <c r="AG5" t="str">
         <f t="shared" si="3"/>
-        <v>lclLevelMatrix.push(Cell(2,3,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(1,3,'dot'));</v>
       </c>
       <c r="AH5" t="str">
         <f t="shared" si="4"/>
-        <v>lclLevelMatrix.push(Cell(3,3,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(2,3,'wall'));</v>
       </c>
       <c r="AI5" t="str">
         <f t="shared" si="5"/>
-        <v>lclLevelMatrix.push(Cell(4,3,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(3,3,'wall'));</v>
       </c>
       <c r="AJ5" t="str">
         <f t="shared" si="6"/>
-        <v>lclLevelMatrix.push(Cell(5,3,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(4,3,'wall'));</v>
       </c>
       <c r="AK5" t="str">
         <f t="shared" si="7"/>
-        <v>lclLevelMatrix.push(Cell(6,3,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(5,3,'wall'));</v>
       </c>
       <c r="AL5" t="str">
         <f t="shared" si="8"/>
-        <v>lclLevelMatrix.push(Cell(7,3,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(6,3,'dot'));</v>
       </c>
       <c r="AM5" t="str">
         <f t="shared" si="9"/>
-        <v>lclLevelMatrix.push(Cell(8,3,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(7,3,'wall'));</v>
       </c>
       <c r="AN5" t="str">
         <f t="shared" si="10"/>
-        <v>lclLevelMatrix.push(Cell(9,3,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(8,3,'wall'));</v>
       </c>
       <c r="AO5" t="str">
         <f t="shared" si="11"/>
-        <v>lclLevelMatrix.push(Cell(10,3,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(9,3,'wall'));</v>
       </c>
       <c r="AP5" t="str">
         <f t="shared" si="12"/>
-        <v>lclLevelMatrix.push(Cell(11,3,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(10,3,'wall'));</v>
       </c>
       <c r="AQ5" t="str">
         <f t="shared" si="13"/>
-        <v>lclLevelMatrix.push(Cell(12,3,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(11,3,'wall'));</v>
       </c>
       <c r="AR5" t="str">
         <f t="shared" si="14"/>
-        <v>lclLevelMatrix.push(Cell(13,3,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(12,3,'dot'));</v>
       </c>
       <c r="AS5" t="str">
         <f t="shared" si="15"/>
-        <v>lclLevelMatrix.push(Cell(14,3,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(13,3,'dot'));</v>
       </c>
       <c r="AT5" t="str">
         <f t="shared" si="16"/>
-        <v>lclLevelMatrix.push(Cell(15,3,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(14,3,'dot'));</v>
       </c>
       <c r="AU5" t="str">
         <f t="shared" si="17"/>
-        <v>lclLevelMatrix.push(Cell(16,3,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(15,3,'dot'));</v>
       </c>
       <c r="AV5" t="str">
         <f t="shared" si="18"/>
-        <v>lclLevelMatrix.push(Cell(17,3,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(16,3,'wall'));</v>
       </c>
       <c r="AW5" t="str">
         <f t="shared" si="19"/>
-        <v>lclLevelMatrix.push(Cell(18,3,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(17,3,'wall'));</v>
       </c>
       <c r="AX5" t="str">
         <f t="shared" si="20"/>
-        <v>lclLevelMatrix.push(Cell(19,3,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(18,3,'wall'));</v>
       </c>
       <c r="AY5" t="str">
         <f t="shared" si="21"/>
-        <v>lclLevelMatrix.push(Cell(20,3,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(19,3,'wall'));</v>
       </c>
       <c r="AZ5" t="str">
         <f t="shared" si="22"/>
-        <v>lclLevelMatrix.push(Cell(21,3,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(20,3,'wall'));</v>
       </c>
       <c r="BA5" t="str">
         <f t="shared" si="23"/>
-        <v>lclLevelMatrix.push(Cell(22,3,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(21,3,'dot'));</v>
       </c>
       <c r="BB5" t="str">
         <f t="shared" si="24"/>
-        <v>lclLevelMatrix.push(Cell(23,3,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(22,3,'wall'));</v>
       </c>
       <c r="BC5" t="str">
         <f t="shared" si="25"/>
-        <v>lclLevelMatrix.push(Cell(24,3,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(23,3,'wall'));</v>
       </c>
       <c r="BD5" t="str">
         <f t="shared" si="26"/>
-        <v>lclLevelMatrix.push(Cell(25,3,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(24,3,'wall'));</v>
       </c>
       <c r="BE5" t="str">
         <f t="shared" si="27"/>
-        <v>lclLevelMatrix.push(Cell(26,3,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(25,3,'wall'));</v>
       </c>
       <c r="BF5" t="str">
         <f t="shared" si="28"/>
+        <v>lclLevelMatrix.push(Cell(26,3,'dot'));</v>
+      </c>
+      <c r="BG5" t="str">
+        <f t="shared" si="29"/>
         <v>lclLevelMatrix.push(Cell(27,3,'wall'));</v>
       </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1394,120 +1517,124 @@
       <c r="AC6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE6" t="str">
+      <c r="AD6">
         <f t="shared" si="1"/>
-        <v>lclLevelMatrix.push(Cell(0,4,'wall'));</v>
+        <v>80</v>
       </c>
       <c r="AF6" t="str">
         <f t="shared" si="2"/>
-        <v>lclLevelMatrix.push(Cell(1,4,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(0,4,'wall'));</v>
       </c>
       <c r="AG6" t="str">
         <f t="shared" si="3"/>
-        <v>lclLevelMatrix.push(Cell(2,4,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(1,4,'dot'));</v>
       </c>
       <c r="AH6" t="str">
         <f t="shared" si="4"/>
-        <v>lclLevelMatrix.push(Cell(3,4,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(2,4,'wall'));</v>
       </c>
       <c r="AI6" t="str">
         <f t="shared" si="5"/>
-        <v>lclLevelMatrix.push(Cell(4,4,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(3,4,'wall'));</v>
       </c>
       <c r="AJ6" t="str">
         <f t="shared" si="6"/>
-        <v>lclLevelMatrix.push(Cell(5,4,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(4,4,'wall'));</v>
       </c>
       <c r="AK6" t="str">
         <f t="shared" si="7"/>
-        <v>lclLevelMatrix.push(Cell(6,4,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(5,4,'wall'));</v>
       </c>
       <c r="AL6" t="str">
         <f t="shared" si="8"/>
-        <v>lclLevelMatrix.push(Cell(7,4,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(6,4,'dot'));</v>
       </c>
       <c r="AM6" t="str">
         <f t="shared" si="9"/>
-        <v>lclLevelMatrix.push(Cell(8,4,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(7,4,'wall'));</v>
       </c>
       <c r="AN6" t="str">
         <f t="shared" si="10"/>
-        <v>lclLevelMatrix.push(Cell(9,4,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(8,4,'wall'));</v>
       </c>
       <c r="AO6" t="str">
         <f t="shared" si="11"/>
-        <v>lclLevelMatrix.push(Cell(10,4,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(9,4,'wall'));</v>
       </c>
       <c r="AP6" t="str">
         <f t="shared" si="12"/>
-        <v>lclLevelMatrix.push(Cell(11,4,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(10,4,'wall'));</v>
       </c>
       <c r="AQ6" t="str">
         <f t="shared" si="13"/>
-        <v>lclLevelMatrix.push(Cell(12,4,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(11,4,'wall'));</v>
       </c>
       <c r="AR6" t="str">
         <f t="shared" si="14"/>
-        <v>lclLevelMatrix.push(Cell(13,4,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(12,4,'dot'));</v>
       </c>
       <c r="AS6" t="str">
         <f t="shared" si="15"/>
-        <v>lclLevelMatrix.push(Cell(14,4,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(13,4,'wall'));</v>
       </c>
       <c r="AT6" t="str">
         <f t="shared" si="16"/>
-        <v>lclLevelMatrix.push(Cell(15,4,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(14,4,'wall'));</v>
       </c>
       <c r="AU6" t="str">
         <f t="shared" si="17"/>
-        <v>lclLevelMatrix.push(Cell(16,4,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(15,4,'dot'));</v>
       </c>
       <c r="AV6" t="str">
         <f t="shared" si="18"/>
-        <v>lclLevelMatrix.push(Cell(17,4,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(16,4,'wall'));</v>
       </c>
       <c r="AW6" t="str">
         <f t="shared" si="19"/>
-        <v>lclLevelMatrix.push(Cell(18,4,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(17,4,'wall'));</v>
       </c>
       <c r="AX6" t="str">
         <f t="shared" si="20"/>
-        <v>lclLevelMatrix.push(Cell(19,4,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(18,4,'wall'));</v>
       </c>
       <c r="AY6" t="str">
         <f t="shared" si="21"/>
-        <v>lclLevelMatrix.push(Cell(20,4,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(19,4,'wall'));</v>
       </c>
       <c r="AZ6" t="str">
         <f t="shared" si="22"/>
-        <v>lclLevelMatrix.push(Cell(21,4,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(20,4,'wall'));</v>
       </c>
       <c r="BA6" t="str">
         <f t="shared" si="23"/>
-        <v>lclLevelMatrix.push(Cell(22,4,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(21,4,'dot'));</v>
       </c>
       <c r="BB6" t="str">
         <f t="shared" si="24"/>
-        <v>lclLevelMatrix.push(Cell(23,4,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(22,4,'wall'));</v>
       </c>
       <c r="BC6" t="str">
         <f t="shared" si="25"/>
-        <v>lclLevelMatrix.push(Cell(24,4,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(23,4,'wall'));</v>
       </c>
       <c r="BD6" t="str">
         <f t="shared" si="26"/>
-        <v>lclLevelMatrix.push(Cell(25,4,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(24,4,'wall'));</v>
       </c>
       <c r="BE6" t="str">
         <f t="shared" si="27"/>
-        <v>lclLevelMatrix.push(Cell(26,4,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(25,4,'wall'));</v>
       </c>
       <c r="BF6" t="str">
         <f t="shared" si="28"/>
+        <v>lclLevelMatrix.push(Cell(26,4,'dot'));</v>
+      </c>
+      <c r="BG6" t="str">
+        <f t="shared" si="29"/>
         <v>lclLevelMatrix.push(Cell(27,4,'wall'));</v>
       </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1595,120 +1722,124 @@
       <c r="AC7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE7" t="str">
+      <c r="AD7">
         <f t="shared" si="1"/>
-        <v>lclLevelMatrix.push(Cell(0,5,'wall'));</v>
+        <v>100</v>
       </c>
       <c r="AF7" t="str">
         <f t="shared" si="2"/>
-        <v>lclLevelMatrix.push(Cell(1,5,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(0,5,'wall'));</v>
       </c>
       <c r="AG7" t="str">
         <f t="shared" si="3"/>
-        <v>lclLevelMatrix.push(Cell(2,5,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(1,5,'dot'));</v>
       </c>
       <c r="AH7" t="str">
         <f t="shared" si="4"/>
-        <v>lclLevelMatrix.push(Cell(3,5,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(2,5,'dot'));</v>
       </c>
       <c r="AI7" t="str">
         <f t="shared" si="5"/>
-        <v>lclLevelMatrix.push(Cell(4,5,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(3,5,'dot'));</v>
       </c>
       <c r="AJ7" t="str">
         <f t="shared" si="6"/>
-        <v>lclLevelMatrix.push(Cell(5,5,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(4,5,'dot'));</v>
       </c>
       <c r="AK7" t="str">
         <f t="shared" si="7"/>
-        <v>lclLevelMatrix.push(Cell(6,5,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(5,5,'dot'));</v>
       </c>
       <c r="AL7" t="str">
         <f t="shared" si="8"/>
-        <v>lclLevelMatrix.push(Cell(7,5,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(6,5,'dot'));</v>
       </c>
       <c r="AM7" t="str">
         <f t="shared" si="9"/>
-        <v>lclLevelMatrix.push(Cell(8,5,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(7,5,'dot'));</v>
       </c>
       <c r="AN7" t="str">
         <f t="shared" si="10"/>
-        <v>lclLevelMatrix.push(Cell(9,5,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(8,5,'dot'));</v>
       </c>
       <c r="AO7" t="str">
         <f t="shared" si="11"/>
-        <v>lclLevelMatrix.push(Cell(10,5,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(9,5,'dot'));</v>
       </c>
       <c r="AP7" t="str">
         <f t="shared" si="12"/>
-        <v>lclLevelMatrix.push(Cell(11,5,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(10,5,'dot'));</v>
       </c>
       <c r="AQ7" t="str">
         <f t="shared" si="13"/>
-        <v>lclLevelMatrix.push(Cell(12,5,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(11,5,'dot'));</v>
       </c>
       <c r="AR7" t="str">
         <f t="shared" si="14"/>
-        <v>lclLevelMatrix.push(Cell(13,5,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(12,5,'dot'));</v>
       </c>
       <c r="AS7" t="str">
         <f t="shared" si="15"/>
-        <v>lclLevelMatrix.push(Cell(14,5,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(13,5,'wall'));</v>
       </c>
       <c r="AT7" t="str">
         <f t="shared" si="16"/>
-        <v>lclLevelMatrix.push(Cell(15,5,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(14,5,'wall'));</v>
       </c>
       <c r="AU7" t="str">
         <f t="shared" si="17"/>
-        <v>lclLevelMatrix.push(Cell(16,5,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(15,5,'dot'));</v>
       </c>
       <c r="AV7" t="str">
         <f t="shared" si="18"/>
-        <v>lclLevelMatrix.push(Cell(17,5,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(16,5,'dot'));</v>
       </c>
       <c r="AW7" t="str">
         <f t="shared" si="19"/>
-        <v>lclLevelMatrix.push(Cell(18,5,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(17,5,'dot'));</v>
       </c>
       <c r="AX7" t="str">
         <f t="shared" si="20"/>
-        <v>lclLevelMatrix.push(Cell(19,5,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(18,5,'dot'));</v>
       </c>
       <c r="AY7" t="str">
         <f t="shared" si="21"/>
-        <v>lclLevelMatrix.push(Cell(20,5,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(19,5,'dot'));</v>
       </c>
       <c r="AZ7" t="str">
         <f t="shared" si="22"/>
-        <v>lclLevelMatrix.push(Cell(21,5,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(20,5,'dot'));</v>
       </c>
       <c r="BA7" t="str">
         <f t="shared" si="23"/>
-        <v>lclLevelMatrix.push(Cell(22,5,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(21,5,'dot'));</v>
       </c>
       <c r="BB7" t="str">
         <f t="shared" si="24"/>
-        <v>lclLevelMatrix.push(Cell(23,5,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(22,5,'dot'));</v>
       </c>
       <c r="BC7" t="str">
         <f t="shared" si="25"/>
-        <v>lclLevelMatrix.push(Cell(24,5,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(23,5,'dot'));</v>
       </c>
       <c r="BD7" t="str">
         <f t="shared" si="26"/>
-        <v>lclLevelMatrix.push(Cell(25,5,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(24,5,'dot'));</v>
       </c>
       <c r="BE7" t="str">
         <f t="shared" si="27"/>
-        <v>lclLevelMatrix.push(Cell(26,5,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(25,5,'dot'));</v>
       </c>
       <c r="BF7" t="str">
         <f t="shared" si="28"/>
+        <v>lclLevelMatrix.push(Cell(26,5,'dot'));</v>
+      </c>
+      <c r="BG7" t="str">
+        <f t="shared" si="29"/>
         <v>lclLevelMatrix.push(Cell(27,5,'wall'));</v>
       </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1796,120 +1927,124 @@
       <c r="AC8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE8" t="str">
+      <c r="AD8">
         <f t="shared" si="1"/>
-        <v>lclLevelMatrix.push(Cell(0,6,'wall'));</v>
+        <v>120</v>
       </c>
       <c r="AF8" t="str">
         <f t="shared" si="2"/>
-        <v>lclLevelMatrix.push(Cell(1,6,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(0,6,'wall'));</v>
       </c>
       <c r="AG8" t="str">
         <f t="shared" si="3"/>
-        <v>lclLevelMatrix.push(Cell(2,6,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(1,6,'dot'));</v>
       </c>
       <c r="AH8" t="str">
         <f t="shared" si="4"/>
-        <v>lclLevelMatrix.push(Cell(3,6,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(2,6,'wall'));</v>
       </c>
       <c r="AI8" t="str">
         <f t="shared" si="5"/>
-        <v>lclLevelMatrix.push(Cell(4,6,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(3,6,'wall'));</v>
       </c>
       <c r="AJ8" t="str">
         <f t="shared" si="6"/>
-        <v>lclLevelMatrix.push(Cell(5,6,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(4,6,'wall'));</v>
       </c>
       <c r="AK8" t="str">
         <f t="shared" si="7"/>
-        <v>lclLevelMatrix.push(Cell(6,6,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(5,6,'wall'));</v>
       </c>
       <c r="AL8" t="str">
         <f t="shared" si="8"/>
-        <v>lclLevelMatrix.push(Cell(7,6,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(6,6,'dot'));</v>
       </c>
       <c r="AM8" t="str">
         <f t="shared" si="9"/>
-        <v>lclLevelMatrix.push(Cell(8,6,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(7,6,'wall'));</v>
       </c>
       <c r="AN8" t="str">
         <f t="shared" si="10"/>
-        <v>lclLevelMatrix.push(Cell(9,6,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(8,6,'wall'));</v>
       </c>
       <c r="AO8" t="str">
         <f t="shared" si="11"/>
-        <v>lclLevelMatrix.push(Cell(10,6,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(9,6,'dot'));</v>
       </c>
       <c r="AP8" t="str">
         <f t="shared" si="12"/>
-        <v>lclLevelMatrix.push(Cell(11,6,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(10,6,'wall'));</v>
       </c>
       <c r="AQ8" t="str">
         <f t="shared" si="13"/>
-        <v>lclLevelMatrix.push(Cell(12,6,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(11,6,'wall'));</v>
       </c>
       <c r="AR8" t="str">
         <f t="shared" si="14"/>
-        <v>lclLevelMatrix.push(Cell(13,6,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(12,6,'wall'));</v>
       </c>
       <c r="AS8" t="str">
         <f t="shared" si="15"/>
-        <v>lclLevelMatrix.push(Cell(14,6,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(13,6,'wall'));</v>
       </c>
       <c r="AT8" t="str">
         <f t="shared" si="16"/>
-        <v>lclLevelMatrix.push(Cell(15,6,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(14,6,'wall'));</v>
       </c>
       <c r="AU8" t="str">
         <f t="shared" si="17"/>
-        <v>lclLevelMatrix.push(Cell(16,6,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(15,6,'wall'));</v>
       </c>
       <c r="AV8" t="str">
         <f t="shared" si="18"/>
-        <v>lclLevelMatrix.push(Cell(17,6,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(16,6,'wall'));</v>
       </c>
       <c r="AW8" t="str">
         <f t="shared" si="19"/>
-        <v>lclLevelMatrix.push(Cell(18,6,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(17,6,'wall'));</v>
       </c>
       <c r="AX8" t="str">
         <f t="shared" si="20"/>
-        <v>lclLevelMatrix.push(Cell(19,6,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(18,6,'dot'));</v>
       </c>
       <c r="AY8" t="str">
         <f t="shared" si="21"/>
-        <v>lclLevelMatrix.push(Cell(20,6,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(19,6,'wall'));</v>
       </c>
       <c r="AZ8" t="str">
         <f t="shared" si="22"/>
-        <v>lclLevelMatrix.push(Cell(21,6,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(20,6,'wall'));</v>
       </c>
       <c r="BA8" t="str">
         <f t="shared" si="23"/>
-        <v>lclLevelMatrix.push(Cell(22,6,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(21,6,'dot'));</v>
       </c>
       <c r="BB8" t="str">
         <f t="shared" si="24"/>
-        <v>lclLevelMatrix.push(Cell(23,6,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(22,6,'wall'));</v>
       </c>
       <c r="BC8" t="str">
         <f t="shared" si="25"/>
-        <v>lclLevelMatrix.push(Cell(24,6,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(23,6,'wall'));</v>
       </c>
       <c r="BD8" t="str">
         <f t="shared" si="26"/>
-        <v>lclLevelMatrix.push(Cell(25,6,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(24,6,'wall'));</v>
       </c>
       <c r="BE8" t="str">
         <f t="shared" si="27"/>
-        <v>lclLevelMatrix.push(Cell(26,6,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(25,6,'wall'));</v>
       </c>
       <c r="BF8" t="str">
         <f t="shared" si="28"/>
+        <v>lclLevelMatrix.push(Cell(26,6,'dot'));</v>
+      </c>
+      <c r="BG8" t="str">
+        <f t="shared" si="29"/>
         <v>lclLevelMatrix.push(Cell(27,6,'wall'));</v>
       </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1997,120 +2132,124 @@
       <c r="AC9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE9" t="str">
+      <c r="AD9">
         <f t="shared" si="1"/>
-        <v>lclLevelMatrix.push(Cell(0,7,'wall'));</v>
+        <v>140</v>
       </c>
       <c r="AF9" t="str">
         <f t="shared" si="2"/>
-        <v>lclLevelMatrix.push(Cell(1,7,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(0,7,'wall'));</v>
       </c>
       <c r="AG9" t="str">
         <f t="shared" si="3"/>
-        <v>lclLevelMatrix.push(Cell(2,7,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(1,7,'dot'));</v>
       </c>
       <c r="AH9" t="str">
         <f t="shared" si="4"/>
-        <v>lclLevelMatrix.push(Cell(3,7,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(2,7,'dot'));</v>
       </c>
       <c r="AI9" t="str">
         <f t="shared" si="5"/>
-        <v>lclLevelMatrix.push(Cell(4,7,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(3,7,'dot'));</v>
       </c>
       <c r="AJ9" t="str">
         <f t="shared" si="6"/>
-        <v>lclLevelMatrix.push(Cell(5,7,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(4,7,'dot'));</v>
       </c>
       <c r="AK9" t="str">
         <f t="shared" si="7"/>
-        <v>lclLevelMatrix.push(Cell(6,7,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(5,7,'dot'));</v>
       </c>
       <c r="AL9" t="str">
         <f t="shared" si="8"/>
-        <v>lclLevelMatrix.push(Cell(7,7,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(6,7,'dot'));</v>
       </c>
       <c r="AM9" t="str">
         <f t="shared" si="9"/>
-        <v>lclLevelMatrix.push(Cell(8,7,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(7,7,'wall'));</v>
       </c>
       <c r="AN9" t="str">
         <f t="shared" si="10"/>
-        <v>lclLevelMatrix.push(Cell(9,7,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(8,7,'wall'));</v>
       </c>
       <c r="AO9" t="str">
         <f t="shared" si="11"/>
-        <v>lclLevelMatrix.push(Cell(10,7,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(9,7,'dot'));</v>
       </c>
       <c r="AP9" t="str">
         <f t="shared" si="12"/>
-        <v>lclLevelMatrix.push(Cell(11,7,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(10,7,'dot'));</v>
       </c>
       <c r="AQ9" t="str">
         <f t="shared" si="13"/>
-        <v>lclLevelMatrix.push(Cell(12,7,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(11,7,'dot'));</v>
       </c>
       <c r="AR9" t="str">
         <f t="shared" si="14"/>
-        <v>lclLevelMatrix.push(Cell(13,7,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(12,7,'dot'));</v>
       </c>
       <c r="AS9" t="str">
         <f t="shared" si="15"/>
-        <v>lclLevelMatrix.push(Cell(14,7,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(13,7,'wall'));</v>
       </c>
       <c r="AT9" t="str">
         <f t="shared" si="16"/>
-        <v>lclLevelMatrix.push(Cell(15,7,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(14,7,'wall'));</v>
       </c>
       <c r="AU9" t="str">
         <f t="shared" si="17"/>
-        <v>lclLevelMatrix.push(Cell(16,7,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(15,7,'dot'));</v>
       </c>
       <c r="AV9" t="str">
         <f t="shared" si="18"/>
-        <v>lclLevelMatrix.push(Cell(17,7,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(16,7,'dot'));</v>
       </c>
       <c r="AW9" t="str">
         <f t="shared" si="19"/>
-        <v>lclLevelMatrix.push(Cell(18,7,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(17,7,'dot'));</v>
       </c>
       <c r="AX9" t="str">
         <f t="shared" si="20"/>
-        <v>lclLevelMatrix.push(Cell(19,7,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(18,7,'dot'));</v>
       </c>
       <c r="AY9" t="str">
         <f t="shared" si="21"/>
-        <v>lclLevelMatrix.push(Cell(20,7,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(19,7,'wall'));</v>
       </c>
       <c r="AZ9" t="str">
         <f t="shared" si="22"/>
-        <v>lclLevelMatrix.push(Cell(21,7,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(20,7,'wall'));</v>
       </c>
       <c r="BA9" t="str">
         <f t="shared" si="23"/>
-        <v>lclLevelMatrix.push(Cell(22,7,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(21,7,'dot'));</v>
       </c>
       <c r="BB9" t="str">
         <f t="shared" si="24"/>
-        <v>lclLevelMatrix.push(Cell(23,7,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(22,7,'dot'));</v>
       </c>
       <c r="BC9" t="str">
         <f t="shared" si="25"/>
-        <v>lclLevelMatrix.push(Cell(24,7,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(23,7,'dot'));</v>
       </c>
       <c r="BD9" t="str">
         <f t="shared" si="26"/>
-        <v>lclLevelMatrix.push(Cell(25,7,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(24,7,'dot'));</v>
       </c>
       <c r="BE9" t="str">
         <f t="shared" si="27"/>
-        <v>lclLevelMatrix.push(Cell(26,7,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(25,7,'dot'));</v>
       </c>
       <c r="BF9" t="str">
         <f t="shared" si="28"/>
+        <v>lclLevelMatrix.push(Cell(26,7,'dot'));</v>
+      </c>
+      <c r="BG9" t="str">
+        <f t="shared" si="29"/>
         <v>lclLevelMatrix.push(Cell(27,7,'wall'));</v>
       </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2198,120 +2337,124 @@
       <c r="AC10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE10" t="str">
+      <c r="AD10">
         <f t="shared" si="1"/>
-        <v>lclLevelMatrix.push(Cell(0,8,'wall'));</v>
+        <v>160</v>
       </c>
       <c r="AF10" t="str">
         <f t="shared" si="2"/>
-        <v>lclLevelMatrix.push(Cell(1,8,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(0,8,'wall'));</v>
       </c>
       <c r="AG10" t="str">
         <f t="shared" si="3"/>
-        <v>lclLevelMatrix.push(Cell(2,8,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(1,8,'wall'));</v>
       </c>
       <c r="AH10" t="str">
         <f t="shared" si="4"/>
-        <v>lclLevelMatrix.push(Cell(3,8,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(2,8,'dot'));</v>
       </c>
       <c r="AI10" t="str">
         <f t="shared" si="5"/>
-        <v>lclLevelMatrix.push(Cell(4,8,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(3,8,'wall'));</v>
       </c>
       <c r="AJ10" t="str">
         <f t="shared" si="6"/>
-        <v>lclLevelMatrix.push(Cell(5,8,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(4,8,'wall'));</v>
       </c>
       <c r="AK10" t="str">
         <f t="shared" si="7"/>
-        <v>lclLevelMatrix.push(Cell(6,8,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(5,8,'wall'));</v>
       </c>
       <c r="AL10" t="str">
         <f t="shared" si="8"/>
-        <v>lclLevelMatrix.push(Cell(7,8,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(6,8,'dot'));</v>
       </c>
       <c r="AM10" t="str">
         <f t="shared" si="9"/>
-        <v>lclLevelMatrix.push(Cell(8,8,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(7,8,'wall'));</v>
       </c>
       <c r="AN10" t="str">
         <f t="shared" si="10"/>
-        <v>lclLevelMatrix.push(Cell(9,8,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(8,8,'wall'));</v>
       </c>
       <c r="AO10" t="str">
         <f t="shared" si="11"/>
-        <v>lclLevelMatrix.push(Cell(10,8,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(9,8,'wall'));</v>
       </c>
       <c r="AP10" t="str">
         <f t="shared" si="12"/>
-        <v>lclLevelMatrix.push(Cell(11,8,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(10,8,'wall'));</v>
       </c>
       <c r="AQ10" t="str">
         <f t="shared" si="13"/>
-        <v>lclLevelMatrix.push(Cell(12,8,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(11,8,'wall'));</v>
       </c>
       <c r="AR10" t="str">
         <f t="shared" si="14"/>
-        <v>lclLevelMatrix.push(Cell(13,8,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(12,8,'dot'));</v>
       </c>
       <c r="AS10" t="str">
         <f t="shared" si="15"/>
-        <v>lclLevelMatrix.push(Cell(14,8,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(13,8,'wall'));</v>
       </c>
       <c r="AT10" t="str">
         <f t="shared" si="16"/>
-        <v>lclLevelMatrix.push(Cell(15,8,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(14,8,'wall'));</v>
       </c>
       <c r="AU10" t="str">
         <f t="shared" si="17"/>
-        <v>lclLevelMatrix.push(Cell(16,8,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(15,8,'dot'));</v>
       </c>
       <c r="AV10" t="str">
         <f t="shared" si="18"/>
-        <v>lclLevelMatrix.push(Cell(17,8,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(16,8,'wall'));</v>
       </c>
       <c r="AW10" t="str">
         <f t="shared" si="19"/>
-        <v>lclLevelMatrix.push(Cell(18,8,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(17,8,'wall'));</v>
       </c>
       <c r="AX10" t="str">
         <f t="shared" si="20"/>
-        <v>lclLevelMatrix.push(Cell(19,8,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(18,8,'wall'));</v>
       </c>
       <c r="AY10" t="str">
         <f t="shared" si="21"/>
-        <v>lclLevelMatrix.push(Cell(20,8,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(19,8,'wall'));</v>
       </c>
       <c r="AZ10" t="str">
         <f t="shared" si="22"/>
-        <v>lclLevelMatrix.push(Cell(21,8,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(20,8,'wall'));</v>
       </c>
       <c r="BA10" t="str">
         <f t="shared" si="23"/>
-        <v>lclLevelMatrix.push(Cell(22,8,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(21,8,'dot'));</v>
       </c>
       <c r="BB10" t="str">
         <f t="shared" si="24"/>
-        <v>lclLevelMatrix.push(Cell(23,8,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(22,8,'wall'));</v>
       </c>
       <c r="BC10" t="str">
         <f t="shared" si="25"/>
-        <v>lclLevelMatrix.push(Cell(24,8,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(23,8,'wall'));</v>
       </c>
       <c r="BD10" t="str">
         <f t="shared" si="26"/>
-        <v>lclLevelMatrix.push(Cell(25,8,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(24,8,'wall'));</v>
       </c>
       <c r="BE10" t="str">
         <f t="shared" si="27"/>
-        <v>lclLevelMatrix.push(Cell(26,8,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(25,8,'dot'));</v>
       </c>
       <c r="BF10" t="str">
         <f t="shared" si="28"/>
+        <v>lclLevelMatrix.push(Cell(26,8,'wall'));</v>
+      </c>
+      <c r="BG10" t="str">
+        <f t="shared" si="29"/>
         <v>lclLevelMatrix.push(Cell(27,8,'wall'));</v>
       </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2399,120 +2542,124 @@
       <c r="AC11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE11" t="str">
+      <c r="AD11">
         <f t="shared" si="1"/>
-        <v>lclLevelMatrix.push(Cell(0,9,'wall'));</v>
+        <v>180</v>
       </c>
       <c r="AF11" t="str">
         <f t="shared" si="2"/>
-        <v>lclLevelMatrix.push(Cell(1,9,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(0,9,'wall'));</v>
       </c>
       <c r="AG11" t="str">
         <f t="shared" si="3"/>
-        <v>lclLevelMatrix.push(Cell(2,9,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(1,9,'wall'));</v>
       </c>
       <c r="AH11" t="str">
         <f t="shared" si="4"/>
-        <v>lclLevelMatrix.push(Cell(3,9,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(2,9,'dot'));</v>
       </c>
       <c r="AI11" t="str">
         <f t="shared" si="5"/>
-        <v>lclLevelMatrix.push(Cell(4,9,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(3,9,'wall'));</v>
       </c>
       <c r="AJ11" t="str">
         <f t="shared" si="6"/>
-        <v>lclLevelMatrix.push(Cell(5,9,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(4,9,'wall'));</v>
       </c>
       <c r="AK11" t="str">
         <f t="shared" si="7"/>
-        <v>lclLevelMatrix.push(Cell(6,9,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(5,9,'wall'));</v>
       </c>
       <c r="AL11" t="str">
         <f t="shared" si="8"/>
-        <v>lclLevelMatrix.push(Cell(7,9,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(6,9,'dot'));</v>
       </c>
       <c r="AM11" t="str">
         <f t="shared" si="9"/>
-        <v>lclLevelMatrix.push(Cell(8,9,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(7,9,'wall'));</v>
       </c>
       <c r="AN11" t="str">
         <f t="shared" si="10"/>
-        <v>lclLevelMatrix.push(Cell(9,9,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(8,9,'wall'));</v>
       </c>
       <c r="AO11" t="str">
         <f t="shared" si="11"/>
-        <v>lclLevelMatrix.push(Cell(10,9,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(9,9,'wall'));</v>
       </c>
       <c r="AP11" t="str">
         <f t="shared" si="12"/>
-        <v>lclLevelMatrix.push(Cell(11,9,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(10,9,'wall'));</v>
       </c>
       <c r="AQ11" t="str">
         <f t="shared" si="13"/>
-        <v>lclLevelMatrix.push(Cell(12,9,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(11,9,'wall'));</v>
       </c>
       <c r="AR11" t="str">
         <f t="shared" si="14"/>
-        <v>lclLevelMatrix.push(Cell(13,9,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(12,9,'dot'));</v>
       </c>
       <c r="AS11" t="str">
         <f t="shared" si="15"/>
-        <v>lclLevelMatrix.push(Cell(14,9,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(13,9,'wall'));</v>
       </c>
       <c r="AT11" t="str">
         <f t="shared" si="16"/>
-        <v>lclLevelMatrix.push(Cell(15,9,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(14,9,'wall'));</v>
       </c>
       <c r="AU11" t="str">
         <f t="shared" si="17"/>
-        <v>lclLevelMatrix.push(Cell(16,9,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(15,9,'dot'));</v>
       </c>
       <c r="AV11" t="str">
         <f t="shared" si="18"/>
-        <v>lclLevelMatrix.push(Cell(17,9,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(16,9,'wall'));</v>
       </c>
       <c r="AW11" t="str">
         <f t="shared" si="19"/>
-        <v>lclLevelMatrix.push(Cell(18,9,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(17,9,'wall'));</v>
       </c>
       <c r="AX11" t="str">
         <f t="shared" si="20"/>
-        <v>lclLevelMatrix.push(Cell(19,9,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(18,9,'wall'));</v>
       </c>
       <c r="AY11" t="str">
         <f t="shared" si="21"/>
-        <v>lclLevelMatrix.push(Cell(20,9,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(19,9,'wall'));</v>
       </c>
       <c r="AZ11" t="str">
         <f t="shared" si="22"/>
-        <v>lclLevelMatrix.push(Cell(21,9,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(20,9,'wall'));</v>
       </c>
       <c r="BA11" t="str">
         <f t="shared" si="23"/>
-        <v>lclLevelMatrix.push(Cell(22,9,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(21,9,'dot'));</v>
       </c>
       <c r="BB11" t="str">
         <f t="shared" si="24"/>
-        <v>lclLevelMatrix.push(Cell(23,9,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(22,9,'wall'));</v>
       </c>
       <c r="BC11" t="str">
         <f t="shared" si="25"/>
-        <v>lclLevelMatrix.push(Cell(24,9,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(23,9,'wall'));</v>
       </c>
       <c r="BD11" t="str">
         <f t="shared" si="26"/>
-        <v>lclLevelMatrix.push(Cell(25,9,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(24,9,'wall'));</v>
       </c>
       <c r="BE11" t="str">
         <f t="shared" si="27"/>
-        <v>lclLevelMatrix.push(Cell(26,9,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(25,9,'dot'));</v>
       </c>
       <c r="BF11" t="str">
         <f t="shared" si="28"/>
+        <v>lclLevelMatrix.push(Cell(26,9,'wall'));</v>
+      </c>
+      <c r="BG11" t="str">
+        <f t="shared" si="29"/>
         <v>lclLevelMatrix.push(Cell(27,9,'wall'));</v>
       </c>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2600,120 +2747,124 @@
       <c r="AC12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE12" t="str">
+      <c r="AD12">
         <f t="shared" si="1"/>
-        <v>lclLevelMatrix.push(Cell(0,10,'wall'));</v>
+        <v>200</v>
       </c>
       <c r="AF12" t="str">
         <f t="shared" si="2"/>
-        <v>lclLevelMatrix.push(Cell(1,10,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(0,10,'wall'));</v>
       </c>
       <c r="AG12" t="str">
         <f t="shared" si="3"/>
-        <v>lclLevelMatrix.push(Cell(2,10,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(1,10,'dot'));</v>
       </c>
       <c r="AH12" t="str">
         <f t="shared" si="4"/>
-        <v>lclLevelMatrix.push(Cell(3,10,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(2,10,'dot'));</v>
       </c>
       <c r="AI12" t="str">
         <f t="shared" si="5"/>
-        <v>lclLevelMatrix.push(Cell(4,10,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(3,10,'wall'));</v>
       </c>
       <c r="AJ12" t="str">
         <f t="shared" si="6"/>
-        <v>lclLevelMatrix.push(Cell(5,10,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(4,10,'wall'));</v>
       </c>
       <c r="AK12" t="str">
         <f t="shared" si="7"/>
-        <v>lclLevelMatrix.push(Cell(6,10,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(5,10,'wall'));</v>
       </c>
       <c r="AL12" t="str">
         <f t="shared" si="8"/>
-        <v>lclLevelMatrix.push(Cell(7,10,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(6,10,'dot'));</v>
       </c>
       <c r="AM12" t="str">
         <f t="shared" si="9"/>
-        <v>lclLevelMatrix.push(Cell(8,10,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(7,10,'dot'));</v>
       </c>
       <c r="AN12" t="str">
         <f t="shared" si="10"/>
-        <v>lclLevelMatrix.push(Cell(9,10,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(8,10,'dot'));</v>
       </c>
       <c r="AO12" t="str">
         <f t="shared" si="11"/>
-        <v>lclLevelMatrix.push(Cell(10,10,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(9,10,'dot'));</v>
       </c>
       <c r="AP12" t="str">
         <f t="shared" si="12"/>
-        <v>lclLevelMatrix.push(Cell(11,10,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(10,10,'dot'));</v>
       </c>
       <c r="AQ12" t="str">
         <f t="shared" si="13"/>
-        <v>lclLevelMatrix.push(Cell(12,10,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(11,10,'dot'));</v>
       </c>
       <c r="AR12" t="str">
         <f t="shared" si="14"/>
-        <v>lclLevelMatrix.push(Cell(13,10,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(12,10,'dot'));</v>
       </c>
       <c r="AS12" t="str">
         <f t="shared" si="15"/>
-        <v>lclLevelMatrix.push(Cell(14,10,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(13,10,'dot'));</v>
       </c>
       <c r="AT12" t="str">
         <f t="shared" si="16"/>
-        <v>lclLevelMatrix.push(Cell(15,10,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(14,10,'dot'));</v>
       </c>
       <c r="AU12" t="str">
         <f t="shared" si="17"/>
-        <v>lclLevelMatrix.push(Cell(16,10,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(15,10,'dot'));</v>
       </c>
       <c r="AV12" t="str">
         <f t="shared" si="18"/>
-        <v>lclLevelMatrix.push(Cell(17,10,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(16,10,'dot'));</v>
       </c>
       <c r="AW12" t="str">
         <f t="shared" si="19"/>
-        <v>lclLevelMatrix.push(Cell(18,10,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(17,10,'dot'));</v>
       </c>
       <c r="AX12" t="str">
         <f t="shared" si="20"/>
-        <v>lclLevelMatrix.push(Cell(19,10,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(18,10,'dot'));</v>
       </c>
       <c r="AY12" t="str">
         <f t="shared" si="21"/>
-        <v>lclLevelMatrix.push(Cell(20,10,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(19,10,'dot'));</v>
       </c>
       <c r="AZ12" t="str">
         <f t="shared" si="22"/>
-        <v>lclLevelMatrix.push(Cell(21,10,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(20,10,'dot'));</v>
       </c>
       <c r="BA12" t="str">
         <f t="shared" si="23"/>
-        <v>lclLevelMatrix.push(Cell(22,10,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(21,10,'dot'));</v>
       </c>
       <c r="BB12" t="str">
         <f t="shared" si="24"/>
-        <v>lclLevelMatrix.push(Cell(23,10,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(22,10,'wall'));</v>
       </c>
       <c r="BC12" t="str">
         <f t="shared" si="25"/>
-        <v>lclLevelMatrix.push(Cell(24,10,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(23,10,'wall'));</v>
       </c>
       <c r="BD12" t="str">
         <f t="shared" si="26"/>
-        <v>lclLevelMatrix.push(Cell(25,10,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(24,10,'wall'));</v>
       </c>
       <c r="BE12" t="str">
         <f t="shared" si="27"/>
-        <v>lclLevelMatrix.push(Cell(26,10,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(25,10,'dot'));</v>
       </c>
       <c r="BF12" t="str">
         <f t="shared" si="28"/>
+        <v>lclLevelMatrix.push(Cell(26,10,'dot'));</v>
+      </c>
+      <c r="BG12" t="str">
+        <f t="shared" si="29"/>
         <v>lclLevelMatrix.push(Cell(27,10,'wall'));</v>
       </c>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2801,120 +2952,124 @@
       <c r="AC13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE13" t="str">
+      <c r="AD13">
         <f t="shared" si="1"/>
-        <v>lclLevelMatrix.push(Cell(0,11,'wall'));</v>
+        <v>220</v>
       </c>
       <c r="AF13" t="str">
         <f t="shared" si="2"/>
-        <v>lclLevelMatrix.push(Cell(1,11,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(0,11,'wall'));</v>
       </c>
       <c r="AG13" t="str">
         <f t="shared" si="3"/>
-        <v>lclLevelMatrix.push(Cell(2,11,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(1,11,'dot'));</v>
       </c>
       <c r="AH13" t="str">
         <f t="shared" si="4"/>
-        <v>lclLevelMatrix.push(Cell(3,11,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(2,11,'wall'));</v>
       </c>
       <c r="AI13" t="str">
         <f t="shared" si="5"/>
-        <v>lclLevelMatrix.push(Cell(4,11,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(3,11,'wall'));</v>
       </c>
       <c r="AJ13" t="str">
         <f t="shared" si="6"/>
-        <v>lclLevelMatrix.push(Cell(5,11,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(4,11,'wall'));</v>
       </c>
       <c r="AK13" t="str">
         <f t="shared" si="7"/>
-        <v>lclLevelMatrix.push(Cell(6,11,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(5,11,'wall'));</v>
       </c>
       <c r="AL13" t="str">
         <f t="shared" si="8"/>
-        <v>lclLevelMatrix.push(Cell(7,11,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(6,11,'dot'));</v>
       </c>
       <c r="AM13" t="str">
         <f t="shared" si="9"/>
-        <v>lclLevelMatrix.push(Cell(8,11,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(7,11,'wall'));</v>
       </c>
       <c r="AN13" t="str">
         <f t="shared" si="10"/>
-        <v>lclLevelMatrix.push(Cell(9,11,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(8,11,'wall'));</v>
       </c>
       <c r="AO13" t="str">
         <f t="shared" si="11"/>
-        <v>lclLevelMatrix.push(Cell(10,11,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(9,11,'dot'));</v>
       </c>
       <c r="AP13" t="str">
         <f t="shared" si="12"/>
-        <v>lclLevelMatrix.push(Cell(11,11,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(10,11,'wall'));</v>
       </c>
       <c r="AQ13" t="str">
         <f t="shared" si="13"/>
-        <v>lclLevelMatrix.push(Cell(12,11,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(11,11,'wall'));</v>
       </c>
       <c r="AR13" t="str">
         <f t="shared" si="14"/>
-        <v>lclLevelMatrix.push(Cell(13,11,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(12,11,'dot'));</v>
       </c>
       <c r="AS13" t="str">
         <f t="shared" si="15"/>
-        <v>lclLevelMatrix.push(Cell(14,11,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(13,11,'dot'));</v>
       </c>
       <c r="AT13" t="str">
         <f t="shared" si="16"/>
-        <v>lclLevelMatrix.push(Cell(15,11,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(14,11,'dot'));</v>
       </c>
       <c r="AU13" t="str">
         <f t="shared" si="17"/>
-        <v>lclLevelMatrix.push(Cell(16,11,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(15,11,'dot'));</v>
       </c>
       <c r="AV13" t="str">
         <f t="shared" si="18"/>
-        <v>lclLevelMatrix.push(Cell(17,11,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(16,11,'wall'));</v>
       </c>
       <c r="AW13" t="str">
         <f t="shared" si="19"/>
-        <v>lclLevelMatrix.push(Cell(18,11,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(17,11,'wall'));</v>
       </c>
       <c r="AX13" t="str">
         <f t="shared" si="20"/>
-        <v>lclLevelMatrix.push(Cell(19,11,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(18,11,'dot'));</v>
       </c>
       <c r="AY13" t="str">
         <f t="shared" si="21"/>
-        <v>lclLevelMatrix.push(Cell(20,11,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(19,11,'wall'));</v>
       </c>
       <c r="AZ13" t="str">
         <f t="shared" si="22"/>
-        <v>lclLevelMatrix.push(Cell(21,11,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(20,11,'wall'));</v>
       </c>
       <c r="BA13" t="str">
         <f t="shared" si="23"/>
-        <v>lclLevelMatrix.push(Cell(22,11,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(21,11,'dot'));</v>
       </c>
       <c r="BB13" t="str">
         <f t="shared" si="24"/>
-        <v>lclLevelMatrix.push(Cell(23,11,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(22,11,'wall'));</v>
       </c>
       <c r="BC13" t="str">
         <f t="shared" si="25"/>
-        <v>lclLevelMatrix.push(Cell(24,11,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(23,11,'wall'));</v>
       </c>
       <c r="BD13" t="str">
         <f t="shared" si="26"/>
-        <v>lclLevelMatrix.push(Cell(25,11,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(24,11,'wall'));</v>
       </c>
       <c r="BE13" t="str">
         <f t="shared" si="27"/>
-        <v>lclLevelMatrix.push(Cell(26,11,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(25,11,'wall'));</v>
       </c>
       <c r="BF13" t="str">
         <f t="shared" si="28"/>
+        <v>lclLevelMatrix.push(Cell(26,11,'dot'));</v>
+      </c>
+      <c r="BG13" t="str">
+        <f t="shared" si="29"/>
         <v>lclLevelMatrix.push(Cell(27,11,'wall'));</v>
       </c>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3002,120 +3157,124 @@
       <c r="AC14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE14" t="str">
+      <c r="AD14">
         <f t="shared" si="1"/>
-        <v>lclLevelMatrix.push(Cell(0,12,'wall'));</v>
+        <v>240</v>
       </c>
       <c r="AF14" t="str">
         <f t="shared" si="2"/>
-        <v>lclLevelMatrix.push(Cell(1,12,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(0,12,'wall'));</v>
       </c>
       <c r="AG14" t="str">
         <f t="shared" si="3"/>
-        <v>lclLevelMatrix.push(Cell(2,12,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(1,12,'dot'));</v>
       </c>
       <c r="AH14" t="str">
         <f t="shared" si="4"/>
-        <v>lclLevelMatrix.push(Cell(3,12,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(2,12,'wall'));</v>
       </c>
       <c r="AI14" t="str">
         <f t="shared" si="5"/>
-        <v>lclLevelMatrix.push(Cell(4,12,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(3,12,'wall'));</v>
       </c>
       <c r="AJ14" t="str">
         <f t="shared" si="6"/>
-        <v>lclLevelMatrix.push(Cell(5,12,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(4,12,'wall'));</v>
       </c>
       <c r="AK14" t="str">
         <f t="shared" si="7"/>
-        <v>lclLevelMatrix.push(Cell(6,12,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(5,12,'wall'));</v>
       </c>
       <c r="AL14" t="str">
         <f t="shared" si="8"/>
-        <v>lclLevelMatrix.push(Cell(7,12,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(6,12,'dot'));</v>
       </c>
       <c r="AM14" t="str">
         <f t="shared" si="9"/>
-        <v>lclLevelMatrix.push(Cell(8,12,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(7,12,'wall'));</v>
       </c>
       <c r="AN14" t="str">
         <f t="shared" si="10"/>
-        <v>lclLevelMatrix.push(Cell(9,12,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(8,12,'wall'));</v>
       </c>
       <c r="AO14" t="str">
         <f t="shared" si="11"/>
-        <v>lclLevelMatrix.push(Cell(10,12,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(9,12,'dot'));</v>
       </c>
       <c r="AP14" t="str">
         <f t="shared" si="12"/>
-        <v>lclLevelMatrix.push(Cell(11,12,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(10,12,'wall'));</v>
       </c>
       <c r="AQ14" t="str">
         <f t="shared" si="13"/>
-        <v>lclLevelMatrix.push(Cell(12,12,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(11,12,'wall'));</v>
       </c>
       <c r="AR14" t="str">
         <f t="shared" si="14"/>
-        <v>lclLevelMatrix.push(Cell(13,12,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(12,12,'dot'));</v>
       </c>
       <c r="AS14" t="str">
         <f t="shared" si="15"/>
-        <v>lclLevelMatrix.push(Cell(14,12,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(13,12,'dot'));</v>
       </c>
       <c r="AT14" t="str">
         <f t="shared" si="16"/>
-        <v>lclLevelMatrix.push(Cell(15,12,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(14,12,'dot'));</v>
       </c>
       <c r="AU14" t="str">
         <f t="shared" si="17"/>
-        <v>lclLevelMatrix.push(Cell(16,12,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(15,12,'dot'));</v>
       </c>
       <c r="AV14" t="str">
         <f t="shared" si="18"/>
-        <v>lclLevelMatrix.push(Cell(17,12,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(16,12,'wall'));</v>
       </c>
       <c r="AW14" t="str">
         <f t="shared" si="19"/>
-        <v>lclLevelMatrix.push(Cell(18,12,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(17,12,'wall'));</v>
       </c>
       <c r="AX14" t="str">
         <f t="shared" si="20"/>
-        <v>lclLevelMatrix.push(Cell(19,12,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(18,12,'dot'));</v>
       </c>
       <c r="AY14" t="str">
         <f t="shared" si="21"/>
-        <v>lclLevelMatrix.push(Cell(20,12,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(19,12,'wall'));</v>
       </c>
       <c r="AZ14" t="str">
         <f t="shared" si="22"/>
-        <v>lclLevelMatrix.push(Cell(21,12,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(20,12,'wall'));</v>
       </c>
       <c r="BA14" t="str">
         <f t="shared" si="23"/>
-        <v>lclLevelMatrix.push(Cell(22,12,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(21,12,'dot'));</v>
       </c>
       <c r="BB14" t="str">
         <f t="shared" si="24"/>
-        <v>lclLevelMatrix.push(Cell(23,12,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(22,12,'wall'));</v>
       </c>
       <c r="BC14" t="str">
         <f t="shared" si="25"/>
-        <v>lclLevelMatrix.push(Cell(24,12,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(23,12,'wall'));</v>
       </c>
       <c r="BD14" t="str">
         <f t="shared" si="26"/>
-        <v>lclLevelMatrix.push(Cell(25,12,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(24,12,'wall'));</v>
       </c>
       <c r="BE14" t="str">
         <f t="shared" si="27"/>
-        <v>lclLevelMatrix.push(Cell(26,12,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(25,12,'wall'));</v>
       </c>
       <c r="BF14" t="str">
         <f t="shared" si="28"/>
+        <v>lclLevelMatrix.push(Cell(26,12,'dot'));</v>
+      </c>
+      <c r="BG14" t="str">
+        <f t="shared" si="29"/>
         <v>lclLevelMatrix.push(Cell(27,12,'wall'));</v>
       </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3203,120 +3362,124 @@
       <c r="AC15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE15" t="str">
+      <c r="AD15">
         <f t="shared" si="1"/>
-        <v>lclLevelMatrix.push(Cell(0,13,'wall'));</v>
+        <v>260</v>
       </c>
       <c r="AF15" t="str">
         <f t="shared" si="2"/>
-        <v>lclLevelMatrix.push(Cell(1,13,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(0,13,'wall'));</v>
       </c>
       <c r="AG15" t="str">
         <f t="shared" si="3"/>
-        <v>lclLevelMatrix.push(Cell(2,13,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(1,13,'dot'));</v>
       </c>
       <c r="AH15" t="str">
         <f t="shared" si="4"/>
-        <v>lclLevelMatrix.push(Cell(3,13,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(2,13,'dot'));</v>
       </c>
       <c r="AI15" t="str">
         <f t="shared" si="5"/>
-        <v>lclLevelMatrix.push(Cell(4,13,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(3,13,'dot'));</v>
       </c>
       <c r="AJ15" t="str">
         <f t="shared" si="6"/>
-        <v>lclLevelMatrix.push(Cell(5,13,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(4,13,'dot'));</v>
       </c>
       <c r="AK15" t="str">
         <f t="shared" si="7"/>
-        <v>lclLevelMatrix.push(Cell(6,13,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(5,13,'dot'));</v>
       </c>
       <c r="AL15" t="str">
         <f t="shared" si="8"/>
-        <v>lclLevelMatrix.push(Cell(7,13,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(6,13,'dot'));</v>
       </c>
       <c r="AM15" t="str">
         <f t="shared" si="9"/>
-        <v>lclLevelMatrix.push(Cell(8,13,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(7,13,'wall'));</v>
       </c>
       <c r="AN15" t="str">
         <f t="shared" si="10"/>
-        <v>lclLevelMatrix.push(Cell(9,13,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(8,13,'wall'));</v>
       </c>
       <c r="AO15" t="str">
         <f t="shared" si="11"/>
-        <v>lclLevelMatrix.push(Cell(10,13,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(9,13,'dot'));</v>
       </c>
       <c r="AP15" t="str">
         <f t="shared" si="12"/>
-        <v>lclLevelMatrix.push(Cell(11,13,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(10,13,'wall'));</v>
       </c>
       <c r="AQ15" t="str">
         <f t="shared" si="13"/>
-        <v>lclLevelMatrix.push(Cell(12,13,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(11,13,'wall'));</v>
       </c>
       <c r="AR15" t="str">
         <f t="shared" si="14"/>
-        <v>lclLevelMatrix.push(Cell(13,13,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(12,13,'wall'));</v>
       </c>
       <c r="AS15" t="str">
         <f t="shared" si="15"/>
-        <v>lclLevelMatrix.push(Cell(14,13,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(13,13,'wall'));</v>
       </c>
       <c r="AT15" t="str">
         <f t="shared" si="16"/>
-        <v>lclLevelMatrix.push(Cell(15,13,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(14,13,'wall'));</v>
       </c>
       <c r="AU15" t="str">
         <f t="shared" si="17"/>
-        <v>lclLevelMatrix.push(Cell(16,13,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(15,13,'wall'));</v>
       </c>
       <c r="AV15" t="str">
         <f t="shared" si="18"/>
-        <v>lclLevelMatrix.push(Cell(17,13,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(16,13,'wall'));</v>
       </c>
       <c r="AW15" t="str">
         <f t="shared" si="19"/>
-        <v>lclLevelMatrix.push(Cell(18,13,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(17,13,'wall'));</v>
       </c>
       <c r="AX15" t="str">
         <f t="shared" si="20"/>
-        <v>lclLevelMatrix.push(Cell(19,13,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(18,13,'dot'));</v>
       </c>
       <c r="AY15" t="str">
         <f t="shared" si="21"/>
-        <v>lclLevelMatrix.push(Cell(20,13,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(19,13,'wall'));</v>
       </c>
       <c r="AZ15" t="str">
         <f t="shared" si="22"/>
-        <v>lclLevelMatrix.push(Cell(21,13,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(20,13,'wall'));</v>
       </c>
       <c r="BA15" t="str">
         <f t="shared" si="23"/>
-        <v>lclLevelMatrix.push(Cell(22,13,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(21,13,'dot'));</v>
       </c>
       <c r="BB15" t="str">
         <f t="shared" si="24"/>
-        <v>lclLevelMatrix.push(Cell(23,13,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(22,13,'dot'));</v>
       </c>
       <c r="BC15" t="str">
         <f t="shared" si="25"/>
-        <v>lclLevelMatrix.push(Cell(24,13,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(23,13,'dot'));</v>
       </c>
       <c r="BD15" t="str">
         <f t="shared" si="26"/>
-        <v>lclLevelMatrix.push(Cell(25,13,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(24,13,'dot'));</v>
       </c>
       <c r="BE15" t="str">
         <f t="shared" si="27"/>
-        <v>lclLevelMatrix.push(Cell(26,13,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(25,13,'dot'));</v>
       </c>
       <c r="BF15" t="str">
         <f t="shared" si="28"/>
+        <v>lclLevelMatrix.push(Cell(26,13,'dot'));</v>
+      </c>
+      <c r="BG15" t="str">
+        <f t="shared" si="29"/>
         <v>lclLevelMatrix.push(Cell(27,13,'wall'));</v>
       </c>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3404,120 +3567,124 @@
       <c r="AC16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE16" t="str">
+      <c r="AD16">
         <f t="shared" si="1"/>
-        <v>lclLevelMatrix.push(Cell(0,14,'wall'));</v>
+        <v>280</v>
       </c>
       <c r="AF16" t="str">
         <f t="shared" si="2"/>
-        <v>lclLevelMatrix.push(Cell(1,14,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(0,14,'wall'));</v>
       </c>
       <c r="AG16" t="str">
         <f t="shared" si="3"/>
-        <v>lclLevelMatrix.push(Cell(2,14,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(1,14,'dot'));</v>
       </c>
       <c r="AH16" t="str">
         <f t="shared" si="4"/>
-        <v>lclLevelMatrix.push(Cell(3,14,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(2,14,'wall'));</v>
       </c>
       <c r="AI16" t="str">
         <f t="shared" si="5"/>
-        <v>lclLevelMatrix.push(Cell(4,14,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(3,14,'wall'));</v>
       </c>
       <c r="AJ16" t="str">
         <f t="shared" si="6"/>
-        <v>lclLevelMatrix.push(Cell(5,14,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(4,14,'wall'));</v>
       </c>
       <c r="AK16" t="str">
         <f t="shared" si="7"/>
-        <v>lclLevelMatrix.push(Cell(6,14,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(5,14,'wall'));</v>
       </c>
       <c r="AL16" t="str">
         <f t="shared" si="8"/>
-        <v>lclLevelMatrix.push(Cell(7,14,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(6,14,'dot'));</v>
       </c>
       <c r="AM16" t="str">
         <f t="shared" si="9"/>
-        <v>lclLevelMatrix.push(Cell(8,14,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(7,14,'wall'));</v>
       </c>
       <c r="AN16" t="str">
         <f t="shared" si="10"/>
-        <v>lclLevelMatrix.push(Cell(9,14,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(8,14,'wall'));</v>
       </c>
       <c r="AO16" t="str">
         <f t="shared" si="11"/>
-        <v>lclLevelMatrix.push(Cell(10,14,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(9,14,'dot'));</v>
       </c>
       <c r="AP16" t="str">
         <f t="shared" si="12"/>
-        <v>lclLevelMatrix.push(Cell(11,14,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(10,14,'wall'));</v>
       </c>
       <c r="AQ16" t="str">
         <f t="shared" si="13"/>
-        <v>lclLevelMatrix.push(Cell(12,14,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(11,14,'wall'));</v>
       </c>
       <c r="AR16" t="str">
         <f t="shared" si="14"/>
-        <v>lclLevelMatrix.push(Cell(13,14,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(12,14,'wall'));</v>
       </c>
       <c r="AS16" t="str">
         <f t="shared" si="15"/>
-        <v>lclLevelMatrix.push(Cell(14,14,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(13,14,'wall'));</v>
       </c>
       <c r="AT16" t="str">
         <f t="shared" si="16"/>
-        <v>lclLevelMatrix.push(Cell(15,14,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(14,14,'wall'));</v>
       </c>
       <c r="AU16" t="str">
         <f t="shared" si="17"/>
-        <v>lclLevelMatrix.push(Cell(16,14,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(15,14,'wall'));</v>
       </c>
       <c r="AV16" t="str">
         <f t="shared" si="18"/>
-        <v>lclLevelMatrix.push(Cell(17,14,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(16,14,'wall'));</v>
       </c>
       <c r="AW16" t="str">
         <f t="shared" si="19"/>
-        <v>lclLevelMatrix.push(Cell(18,14,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(17,14,'wall'));</v>
       </c>
       <c r="AX16" t="str">
         <f t="shared" si="20"/>
-        <v>lclLevelMatrix.push(Cell(19,14,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(18,14,'dot'));</v>
       </c>
       <c r="AY16" t="str">
         <f t="shared" si="21"/>
-        <v>lclLevelMatrix.push(Cell(20,14,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(19,14,'wall'));</v>
       </c>
       <c r="AZ16" t="str">
         <f t="shared" si="22"/>
-        <v>lclLevelMatrix.push(Cell(21,14,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(20,14,'wall'));</v>
       </c>
       <c r="BA16" t="str">
         <f t="shared" si="23"/>
-        <v>lclLevelMatrix.push(Cell(22,14,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(21,14,'dot'));</v>
       </c>
       <c r="BB16" t="str">
         <f t="shared" si="24"/>
-        <v>lclLevelMatrix.push(Cell(23,14,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(22,14,'wall'));</v>
       </c>
       <c r="BC16" t="str">
         <f t="shared" si="25"/>
-        <v>lclLevelMatrix.push(Cell(24,14,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(23,14,'wall'));</v>
       </c>
       <c r="BD16" t="str">
         <f t="shared" si="26"/>
-        <v>lclLevelMatrix.push(Cell(25,14,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(24,14,'wall'));</v>
       </c>
       <c r="BE16" t="str">
         <f t="shared" si="27"/>
-        <v>lclLevelMatrix.push(Cell(26,14,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(25,14,'wall'));</v>
       </c>
       <c r="BF16" t="str">
         <f t="shared" si="28"/>
+        <v>lclLevelMatrix.push(Cell(26,14,'dot'));</v>
+      </c>
+      <c r="BG16" t="str">
+        <f t="shared" si="29"/>
         <v>lclLevelMatrix.push(Cell(27,14,'wall'));</v>
       </c>
     </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3605,120 +3772,124 @@
       <c r="AC17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE17" t="str">
+      <c r="AD17">
         <f t="shared" si="1"/>
-        <v>lclLevelMatrix.push(Cell(0,15,'wall'));</v>
+        <v>300</v>
       </c>
       <c r="AF17" t="str">
         <f t="shared" si="2"/>
-        <v>lclLevelMatrix.push(Cell(1,15,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(0,15,'wall'));</v>
       </c>
       <c r="AG17" t="str">
         <f t="shared" si="3"/>
-        <v>lclLevelMatrix.push(Cell(2,15,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(1,15,'dot'));</v>
       </c>
       <c r="AH17" t="str">
         <f t="shared" si="4"/>
-        <v>lclLevelMatrix.push(Cell(3,15,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(2,15,'wall'));</v>
       </c>
       <c r="AI17" t="str">
         <f t="shared" si="5"/>
-        <v>lclLevelMatrix.push(Cell(4,15,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(3,15,'wall'));</v>
       </c>
       <c r="AJ17" t="str">
         <f t="shared" si="6"/>
-        <v>lclLevelMatrix.push(Cell(5,15,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(4,15,'wall'));</v>
       </c>
       <c r="AK17" t="str">
         <f t="shared" si="7"/>
-        <v>lclLevelMatrix.push(Cell(6,15,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(5,15,'wall'));</v>
       </c>
       <c r="AL17" t="str">
         <f t="shared" si="8"/>
-        <v>lclLevelMatrix.push(Cell(7,15,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(6,15,'dot'));</v>
       </c>
       <c r="AM17" t="str">
         <f t="shared" si="9"/>
-        <v>lclLevelMatrix.push(Cell(8,15,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(7,15,'wall'));</v>
       </c>
       <c r="AN17" t="str">
         <f t="shared" si="10"/>
-        <v>lclLevelMatrix.push(Cell(9,15,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(8,15,'wall'));</v>
       </c>
       <c r="AO17" t="str">
         <f t="shared" si="11"/>
-        <v>lclLevelMatrix.push(Cell(10,15,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(9,15,'dot'));</v>
       </c>
       <c r="AP17" t="str">
         <f t="shared" si="12"/>
-        <v>lclLevelMatrix.push(Cell(11,15,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(10,15,'wall'));</v>
       </c>
       <c r="AQ17" t="str">
         <f t="shared" si="13"/>
-        <v>lclLevelMatrix.push(Cell(12,15,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(11,15,'wall'));</v>
       </c>
       <c r="AR17" t="str">
         <f t="shared" si="14"/>
-        <v>lclLevelMatrix.push(Cell(13,15,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(12,15,'wall'));</v>
       </c>
       <c r="AS17" t="str">
         <f t="shared" si="15"/>
-        <v>lclLevelMatrix.push(Cell(14,15,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(13,15,'wall'));</v>
       </c>
       <c r="AT17" t="str">
         <f t="shared" si="16"/>
-        <v>lclLevelMatrix.push(Cell(15,15,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(14,15,'wall'));</v>
       </c>
       <c r="AU17" t="str">
         <f t="shared" si="17"/>
-        <v>lclLevelMatrix.push(Cell(16,15,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(15,15,'wall'));</v>
       </c>
       <c r="AV17" t="str">
         <f t="shared" si="18"/>
-        <v>lclLevelMatrix.push(Cell(17,15,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(16,15,'wall'));</v>
       </c>
       <c r="AW17" t="str">
         <f t="shared" si="19"/>
-        <v>lclLevelMatrix.push(Cell(18,15,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(17,15,'wall'));</v>
       </c>
       <c r="AX17" t="str">
         <f t="shared" si="20"/>
-        <v>lclLevelMatrix.push(Cell(19,15,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(18,15,'dot'));</v>
       </c>
       <c r="AY17" t="str">
         <f t="shared" si="21"/>
-        <v>lclLevelMatrix.push(Cell(20,15,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(19,15,'wall'));</v>
       </c>
       <c r="AZ17" t="str">
         <f t="shared" si="22"/>
-        <v>lclLevelMatrix.push(Cell(21,15,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(20,15,'wall'));</v>
       </c>
       <c r="BA17" t="str">
         <f t="shared" si="23"/>
-        <v>lclLevelMatrix.push(Cell(22,15,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(21,15,'dot'));</v>
       </c>
       <c r="BB17" t="str">
         <f t="shared" si="24"/>
-        <v>lclLevelMatrix.push(Cell(23,15,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(22,15,'wall'));</v>
       </c>
       <c r="BC17" t="str">
         <f t="shared" si="25"/>
-        <v>lclLevelMatrix.push(Cell(24,15,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(23,15,'wall'));</v>
       </c>
       <c r="BD17" t="str">
         <f t="shared" si="26"/>
-        <v>lclLevelMatrix.push(Cell(25,15,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(24,15,'wall'));</v>
       </c>
       <c r="BE17" t="str">
         <f t="shared" si="27"/>
-        <v>lclLevelMatrix.push(Cell(26,15,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(25,15,'wall'));</v>
       </c>
       <c r="BF17" t="str">
         <f t="shared" si="28"/>
+        <v>lclLevelMatrix.push(Cell(26,15,'dot'));</v>
+      </c>
+      <c r="BG17" t="str">
+        <f t="shared" si="29"/>
         <v>lclLevelMatrix.push(Cell(27,15,'wall'));</v>
       </c>
     </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3749,177 +3920,181 @@
       <c r="J18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="str">
+      <c r="K18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="U18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="V18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="W18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="X18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="11">
         <f t="shared" si="1"/>
-        <v>lclLevelMatrix.push(Cell(0,16,'wall'));</v>
+        <v>320</v>
       </c>
       <c r="AF18" t="str">
         <f t="shared" si="2"/>
-        <v>lclLevelMatrix.push(Cell(1,16,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(0,16,'wall'));</v>
       </c>
       <c r="AG18" t="str">
         <f t="shared" si="3"/>
-        <v>lclLevelMatrix.push(Cell(2,16,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(1,16,'dot'));</v>
       </c>
       <c r="AH18" t="str">
         <f t="shared" si="4"/>
-        <v>lclLevelMatrix.push(Cell(3,16,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(2,16,'dot'));</v>
       </c>
       <c r="AI18" t="str">
         <f t="shared" si="5"/>
-        <v>lclLevelMatrix.push(Cell(4,16,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(3,16,'wall'));</v>
       </c>
       <c r="AJ18" t="str">
         <f t="shared" si="6"/>
-        <v>lclLevelMatrix.push(Cell(5,16,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(4,16,'wall'));</v>
       </c>
       <c r="AK18" t="str">
         <f t="shared" si="7"/>
-        <v>lclLevelMatrix.push(Cell(6,16,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(5,16,'wall'));</v>
       </c>
       <c r="AL18" t="str">
         <f t="shared" si="8"/>
-        <v>lclLevelMatrix.push(Cell(7,16,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(6,16,'dot'));</v>
       </c>
       <c r="AM18" t="str">
         <f t="shared" si="9"/>
-        <v>lclLevelMatrix.push(Cell(8,16,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(7,16,'wall'));</v>
       </c>
       <c r="AN18" t="str">
         <f t="shared" si="10"/>
-        <v>lclLevelMatrix.push(Cell(9,16,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(8,16,'wall'));</v>
       </c>
       <c r="AO18" t="str">
         <f t="shared" si="11"/>
-        <v>lclLevelMatrix.push(Cell(10,16,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(9,16,'dot'));</v>
       </c>
       <c r="AP18" t="str">
         <f t="shared" si="12"/>
-        <v>lclLevelMatrix.push(Cell(11,16,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(10,16,'dot'));</v>
       </c>
       <c r="AQ18" t="str">
         <f t="shared" si="13"/>
-        <v>lclLevelMatrix.push(Cell(12,16,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(11,16,'dot'));</v>
       </c>
       <c r="AR18" t="str">
         <f t="shared" si="14"/>
-        <v>lclLevelMatrix.push(Cell(13,16,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(12,16,'dot'));</v>
       </c>
       <c r="AS18" t="str">
         <f t="shared" si="15"/>
-        <v>lclLevelMatrix.push(Cell(14,16,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(13,16,'dot'));</v>
       </c>
       <c r="AT18" t="str">
         <f t="shared" si="16"/>
-        <v>lclLevelMatrix.push(Cell(15,16,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(14,16,'dot'));</v>
       </c>
       <c r="AU18" t="str">
         <f t="shared" si="17"/>
-        <v>lclLevelMatrix.push(Cell(16,16,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(15,16,'dot'));</v>
       </c>
       <c r="AV18" t="str">
         <f t="shared" si="18"/>
-        <v>lclLevelMatrix.push(Cell(17,16,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(16,16,'dot'));</v>
       </c>
       <c r="AW18" t="str">
         <f t="shared" si="19"/>
-        <v>lclLevelMatrix.push(Cell(18,16,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(17,16,'dot'));</v>
       </c>
       <c r="AX18" t="str">
         <f t="shared" si="20"/>
-        <v>lclLevelMatrix.push(Cell(19,16,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(18,16,'dot'));</v>
       </c>
       <c r="AY18" t="str">
         <f t="shared" si="21"/>
-        <v>lclLevelMatrix.push(Cell(20,16,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(19,16,'wall'));</v>
       </c>
       <c r="AZ18" t="str">
         <f t="shared" si="22"/>
-        <v>lclLevelMatrix.push(Cell(21,16,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(20,16,'wall'));</v>
       </c>
       <c r="BA18" t="str">
         <f t="shared" si="23"/>
-        <v>lclLevelMatrix.push(Cell(22,16,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(21,16,'dot'));</v>
       </c>
       <c r="BB18" t="str">
         <f t="shared" si="24"/>
-        <v>lclLevelMatrix.push(Cell(23,16,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(22,16,'wall'));</v>
       </c>
       <c r="BC18" t="str">
         <f t="shared" si="25"/>
-        <v>lclLevelMatrix.push(Cell(24,16,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(23,16,'wall'));</v>
       </c>
       <c r="BD18" t="str">
         <f t="shared" si="26"/>
-        <v>lclLevelMatrix.push(Cell(25,16,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(24,16,'wall'));</v>
       </c>
       <c r="BE18" t="str">
         <f t="shared" si="27"/>
-        <v>lclLevelMatrix.push(Cell(26,16,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(25,16,'dot'));</v>
       </c>
       <c r="BF18" t="str">
         <f t="shared" si="28"/>
+        <v>lclLevelMatrix.push(Cell(26,16,'dot'));</v>
+      </c>
+      <c r="BG18" t="str">
+        <f t="shared" si="29"/>
         <v>lclLevelMatrix.push(Cell(27,16,'wall'));</v>
       </c>
     </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3950,7 +4125,7 @@
       <c r="J19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="12" t="s">
         <v>1</v>
       </c>
       <c r="L19" s="2" t="s">
@@ -3962,10 +4137,10 @@
       <c r="N19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P19" s="2" t="s">
+      <c r="O19" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>0</v>
       </c>
       <c r="Q19" s="2" t="s">
@@ -3977,7 +4152,7 @@
       <c r="S19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="T19" s="12" t="s">
         <v>1</v>
       </c>
       <c r="U19" s="2" t="s">
@@ -4007,120 +4182,124 @@
       <c r="AC19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE19" t="str">
+      <c r="AD19">
         <f t="shared" si="1"/>
-        <v>lclLevelMatrix.push(Cell(0,17,'wall'));</v>
+        <v>340</v>
       </c>
       <c r="AF19" t="str">
         <f t="shared" si="2"/>
-        <v>lclLevelMatrix.push(Cell(1,17,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(0,17,'wall'));</v>
       </c>
       <c r="AG19" t="str">
         <f t="shared" si="3"/>
-        <v>lclLevelMatrix.push(Cell(2,17,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(1,17,'wall'));</v>
       </c>
       <c r="AH19" t="str">
         <f t="shared" si="4"/>
-        <v>lclLevelMatrix.push(Cell(3,17,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(2,17,'dot'));</v>
       </c>
       <c r="AI19" t="str">
         <f t="shared" si="5"/>
-        <v>lclLevelMatrix.push(Cell(4,17,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(3,17,'wall'));</v>
       </c>
       <c r="AJ19" t="str">
         <f t="shared" si="6"/>
-        <v>lclLevelMatrix.push(Cell(5,17,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(4,17,'wall'));</v>
       </c>
       <c r="AK19" t="str">
         <f t="shared" si="7"/>
-        <v>lclLevelMatrix.push(Cell(6,17,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(5,17,'wall'));</v>
       </c>
       <c r="AL19" t="str">
         <f t="shared" si="8"/>
-        <v>lclLevelMatrix.push(Cell(7,17,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(6,17,'dot'));</v>
       </c>
       <c r="AM19" t="str">
         <f t="shared" si="9"/>
-        <v>lclLevelMatrix.push(Cell(8,17,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(7,17,'wall'));</v>
       </c>
       <c r="AN19" t="str">
         <f t="shared" si="10"/>
-        <v>lclLevelMatrix.push(Cell(9,17,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(8,17,'wall'));</v>
       </c>
       <c r="AO19" t="str">
         <f t="shared" si="11"/>
-        <v>lclLevelMatrix.push(Cell(10,17,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(9,17,'dot'));</v>
       </c>
       <c r="AP19" t="str">
         <f t="shared" si="12"/>
-        <v>lclLevelMatrix.push(Cell(11,17,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(10,17,'wall'));</v>
       </c>
       <c r="AQ19" t="str">
         <f t="shared" si="13"/>
-        <v>lclLevelMatrix.push(Cell(12,17,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(11,17,'wall'));</v>
       </c>
       <c r="AR19" t="str">
         <f t="shared" si="14"/>
-        <v>lclLevelMatrix.push(Cell(13,17,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(12,17,'wall'));</v>
       </c>
       <c r="AS19" t="str">
         <f t="shared" si="15"/>
-        <v>lclLevelMatrix.push(Cell(14,17,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(13,17,'wall'));</v>
       </c>
       <c r="AT19" t="str">
         <f t="shared" si="16"/>
-        <v>lclLevelMatrix.push(Cell(15,17,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(14,17,'wall'));</v>
       </c>
       <c r="AU19" t="str">
         <f t="shared" si="17"/>
-        <v>lclLevelMatrix.push(Cell(16,17,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(15,17,'wall'));</v>
       </c>
       <c r="AV19" t="str">
         <f t="shared" si="18"/>
-        <v>lclLevelMatrix.push(Cell(17,17,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(16,17,'wall'));</v>
       </c>
       <c r="AW19" t="str">
         <f t="shared" si="19"/>
-        <v>lclLevelMatrix.push(Cell(18,17,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(17,17,'wall'));</v>
       </c>
       <c r="AX19" t="str">
         <f t="shared" si="20"/>
-        <v>lclLevelMatrix.push(Cell(19,17,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(18,17,'dot'));</v>
       </c>
       <c r="AY19" t="str">
         <f t="shared" si="21"/>
-        <v>lclLevelMatrix.push(Cell(20,17,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(19,17,'wall'));</v>
       </c>
       <c r="AZ19" t="str">
         <f t="shared" si="22"/>
-        <v>lclLevelMatrix.push(Cell(21,17,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(20,17,'wall'));</v>
       </c>
       <c r="BA19" t="str">
         <f t="shared" si="23"/>
-        <v>lclLevelMatrix.push(Cell(22,17,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(21,17,'dot'));</v>
       </c>
       <c r="BB19" t="str">
         <f t="shared" si="24"/>
-        <v>lclLevelMatrix.push(Cell(23,17,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(22,17,'wall'));</v>
       </c>
       <c r="BC19" t="str">
         <f t="shared" si="25"/>
-        <v>lclLevelMatrix.push(Cell(24,17,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(23,17,'wall'));</v>
       </c>
       <c r="BD19" t="str">
         <f t="shared" si="26"/>
-        <v>lclLevelMatrix.push(Cell(25,17,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(24,17,'wall'));</v>
       </c>
       <c r="BE19" t="str">
         <f t="shared" si="27"/>
-        <v>lclLevelMatrix.push(Cell(26,17,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(25,17,'dot'));</v>
       </c>
       <c r="BF19" t="str">
         <f t="shared" si="28"/>
+        <v>lclLevelMatrix.push(Cell(26,17,'wall'));</v>
+      </c>
+      <c r="BG19" t="str">
+        <f t="shared" si="29"/>
         <v>lclLevelMatrix.push(Cell(27,17,'wall'));</v>
       </c>
     </row>
-    <row r="20" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4151,7 +4330,7 @@
       <c r="J20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="12" t="s">
         <v>1</v>
       </c>
       <c r="L20" s="2" t="s">
@@ -4163,7 +4342,7 @@
       <c r="N20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="O20" s="13" t="s">
         <v>0</v>
       </c>
       <c r="P20" s="2" t="s">
@@ -4178,7 +4357,7 @@
       <c r="S20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="T20" s="12" t="s">
         <v>1</v>
       </c>
       <c r="U20" s="2" t="s">
@@ -4208,120 +4387,124 @@
       <c r="AC20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE20" t="str">
+      <c r="AD20">
         <f t="shared" si="1"/>
-        <v>lclLevelMatrix.push(Cell(0,18,'wall'));</v>
+        <v>360</v>
       </c>
       <c r="AF20" t="str">
         <f t="shared" si="2"/>
-        <v>lclLevelMatrix.push(Cell(1,18,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(0,18,'wall'));</v>
       </c>
       <c r="AG20" t="str">
         <f t="shared" si="3"/>
-        <v>lclLevelMatrix.push(Cell(2,18,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(1,18,'wall'));</v>
       </c>
       <c r="AH20" t="str">
         <f t="shared" si="4"/>
-        <v>lclLevelMatrix.push(Cell(3,18,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(2,18,'dot'));</v>
       </c>
       <c r="AI20" t="str">
         <f t="shared" si="5"/>
-        <v>lclLevelMatrix.push(Cell(4,18,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(3,18,'wall'));</v>
       </c>
       <c r="AJ20" t="str">
         <f t="shared" si="6"/>
-        <v>lclLevelMatrix.push(Cell(5,18,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(4,18,'wall'));</v>
       </c>
       <c r="AK20" t="str">
         <f t="shared" si="7"/>
-        <v>lclLevelMatrix.push(Cell(6,18,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(5,18,'wall'));</v>
       </c>
       <c r="AL20" t="str">
         <f t="shared" si="8"/>
-        <v>lclLevelMatrix.push(Cell(7,18,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(6,18,'dot'));</v>
       </c>
       <c r="AM20" t="str">
         <f t="shared" si="9"/>
-        <v>lclLevelMatrix.push(Cell(8,18,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(7,18,'wall'));</v>
       </c>
       <c r="AN20" t="str">
         <f t="shared" si="10"/>
-        <v>lclLevelMatrix.push(Cell(9,18,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(8,18,'wall'));</v>
       </c>
       <c r="AO20" t="str">
         <f t="shared" si="11"/>
-        <v>lclLevelMatrix.push(Cell(10,18,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(9,18,'dot'));</v>
       </c>
       <c r="AP20" t="str">
         <f t="shared" si="12"/>
-        <v>lclLevelMatrix.push(Cell(11,18,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(10,18,'wall'));</v>
       </c>
       <c r="AQ20" t="str">
         <f t="shared" si="13"/>
-        <v>lclLevelMatrix.push(Cell(12,18,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(11,18,'wall'));</v>
       </c>
       <c r="AR20" t="str">
         <f t="shared" si="14"/>
-        <v>lclLevelMatrix.push(Cell(13,18,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(12,18,'wall'));</v>
       </c>
       <c r="AS20" t="str">
         <f t="shared" si="15"/>
-        <v>lclLevelMatrix.push(Cell(14,18,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(13,18,'wall'));</v>
       </c>
       <c r="AT20" t="str">
         <f t="shared" si="16"/>
-        <v>lclLevelMatrix.push(Cell(15,18,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(14,18,'wall'));</v>
       </c>
       <c r="AU20" t="str">
         <f t="shared" si="17"/>
-        <v>lclLevelMatrix.push(Cell(16,18,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(15,18,'wall'));</v>
       </c>
       <c r="AV20" t="str">
         <f t="shared" si="18"/>
-        <v>lclLevelMatrix.push(Cell(17,18,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(16,18,'wall'));</v>
       </c>
       <c r="AW20" t="str">
         <f t="shared" si="19"/>
-        <v>lclLevelMatrix.push(Cell(18,18,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(17,18,'wall'));</v>
       </c>
       <c r="AX20" t="str">
         <f t="shared" si="20"/>
-        <v>lclLevelMatrix.push(Cell(19,18,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(18,18,'dot'));</v>
       </c>
       <c r="AY20" t="str">
         <f t="shared" si="21"/>
-        <v>lclLevelMatrix.push(Cell(20,18,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(19,18,'wall'));</v>
       </c>
       <c r="AZ20" t="str">
         <f t="shared" si="22"/>
-        <v>lclLevelMatrix.push(Cell(21,18,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(20,18,'wall'));</v>
       </c>
       <c r="BA20" t="str">
         <f t="shared" si="23"/>
-        <v>lclLevelMatrix.push(Cell(22,18,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(21,18,'dot'));</v>
       </c>
       <c r="BB20" t="str">
         <f t="shared" si="24"/>
-        <v>lclLevelMatrix.push(Cell(23,18,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(22,18,'wall'));</v>
       </c>
       <c r="BC20" t="str">
         <f t="shared" si="25"/>
-        <v>lclLevelMatrix.push(Cell(24,18,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(23,18,'wall'));</v>
       </c>
       <c r="BD20" t="str">
         <f t="shared" si="26"/>
-        <v>lclLevelMatrix.push(Cell(25,18,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(24,18,'wall'));</v>
       </c>
       <c r="BE20" t="str">
         <f t="shared" si="27"/>
-        <v>lclLevelMatrix.push(Cell(26,18,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(25,18,'dot'));</v>
       </c>
       <c r="BF20" t="str">
         <f t="shared" si="28"/>
+        <v>lclLevelMatrix.push(Cell(26,18,'wall'));</v>
+      </c>
+      <c r="BG20" t="str">
+        <f t="shared" si="29"/>
         <v>lclLevelMatrix.push(Cell(27,18,'wall'));</v>
       </c>
     </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4352,7 +4535,7 @@
       <c r="J21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="12" t="s">
         <v>1</v>
       </c>
       <c r="L21" s="1" t="s">
@@ -4364,7 +4547,7 @@
       <c r="N21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="O21" s="12" t="s">
         <v>1</v>
       </c>
       <c r="P21" s="1" t="s">
@@ -4379,7 +4562,7 @@
       <c r="S21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="T21" s="12" t="s">
         <v>1</v>
       </c>
       <c r="U21" s="1" t="s">
@@ -4409,120 +4592,124 @@
       <c r="AC21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE21" t="str">
+      <c r="AD21">
         <f t="shared" si="1"/>
-        <v>lclLevelMatrix.push(Cell(0,19,'wall'));</v>
+        <v>380</v>
       </c>
       <c r="AF21" t="str">
         <f t="shared" si="2"/>
-        <v>lclLevelMatrix.push(Cell(1,19,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(0,19,'wall'));</v>
       </c>
       <c r="AG21" t="str">
         <f t="shared" si="3"/>
-        <v>lclLevelMatrix.push(Cell(2,19,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(1,19,'dot'));</v>
       </c>
       <c r="AH21" t="str">
         <f t="shared" si="4"/>
-        <v>lclLevelMatrix.push(Cell(3,19,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(2,19,'dot'));</v>
       </c>
       <c r="AI21" t="str">
         <f t="shared" si="5"/>
-        <v>lclLevelMatrix.push(Cell(4,19,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(3,19,'dot'));</v>
       </c>
       <c r="AJ21" t="str">
         <f t="shared" si="6"/>
-        <v>lclLevelMatrix.push(Cell(5,19,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(4,19,'dot'));</v>
       </c>
       <c r="AK21" t="str">
         <f t="shared" si="7"/>
-        <v>lclLevelMatrix.push(Cell(6,19,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(5,19,'dot'));</v>
       </c>
       <c r="AL21" t="str">
         <f t="shared" si="8"/>
-        <v>lclLevelMatrix.push(Cell(7,19,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(6,19,'dot'));</v>
       </c>
       <c r="AM21" t="str">
         <f t="shared" si="9"/>
-        <v>lclLevelMatrix.push(Cell(8,19,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(7,19,'dot'));</v>
       </c>
       <c r="AN21" t="str">
         <f t="shared" si="10"/>
-        <v>lclLevelMatrix.push(Cell(9,19,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(8,19,'dot'));</v>
       </c>
       <c r="AO21" t="str">
         <f t="shared" si="11"/>
-        <v>lclLevelMatrix.push(Cell(10,19,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(9,19,'dot'));</v>
       </c>
       <c r="AP21" t="str">
         <f t="shared" si="12"/>
-        <v>lclLevelMatrix.push(Cell(11,19,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(10,19,'dot'));</v>
       </c>
       <c r="AQ21" t="str">
         <f t="shared" si="13"/>
-        <v>lclLevelMatrix.push(Cell(12,19,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(11,19,'dot'));</v>
       </c>
       <c r="AR21" t="str">
         <f t="shared" si="14"/>
-        <v>lclLevelMatrix.push(Cell(13,19,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(12,19,'dot'));</v>
       </c>
       <c r="AS21" t="str">
         <f t="shared" si="15"/>
-        <v>lclLevelMatrix.push(Cell(14,19,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(13,19,'dot'));</v>
       </c>
       <c r="AT21" t="str">
         <f t="shared" si="16"/>
-        <v>lclLevelMatrix.push(Cell(15,19,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(14,19,'dot'));</v>
       </c>
       <c r="AU21" t="str">
         <f t="shared" si="17"/>
-        <v>lclLevelMatrix.push(Cell(16,19,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(15,19,'dot'));</v>
       </c>
       <c r="AV21" t="str">
         <f t="shared" si="18"/>
-        <v>lclLevelMatrix.push(Cell(17,19,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(16,19,'dot'));</v>
       </c>
       <c r="AW21" t="str">
         <f t="shared" si="19"/>
-        <v>lclLevelMatrix.push(Cell(18,19,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(17,19,'dot'));</v>
       </c>
       <c r="AX21" t="str">
         <f t="shared" si="20"/>
-        <v>lclLevelMatrix.push(Cell(19,19,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(18,19,'dot'));</v>
       </c>
       <c r="AY21" t="str">
         <f t="shared" si="21"/>
-        <v>lclLevelMatrix.push(Cell(20,19,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(19,19,'dot'));</v>
       </c>
       <c r="AZ21" t="str">
         <f t="shared" si="22"/>
-        <v>lclLevelMatrix.push(Cell(21,19,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(20,19,'dot'));</v>
       </c>
       <c r="BA21" t="str">
         <f t="shared" si="23"/>
-        <v>lclLevelMatrix.push(Cell(22,19,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(21,19,'dot'));</v>
       </c>
       <c r="BB21" t="str">
         <f t="shared" si="24"/>
-        <v>lclLevelMatrix.push(Cell(23,19,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(22,19,'dot'));</v>
       </c>
       <c r="BC21" t="str">
         <f t="shared" si="25"/>
-        <v>lclLevelMatrix.push(Cell(24,19,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(23,19,'dot'));</v>
       </c>
       <c r="BD21" t="str">
         <f t="shared" si="26"/>
-        <v>lclLevelMatrix.push(Cell(25,19,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(24,19,'dot'));</v>
       </c>
       <c r="BE21" t="str">
         <f t="shared" si="27"/>
-        <v>lclLevelMatrix.push(Cell(26,19,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(25,19,'dot'));</v>
       </c>
       <c r="BF21" t="str">
         <f t="shared" si="28"/>
+        <v>lclLevelMatrix.push(Cell(26,19,'dot'));</v>
+      </c>
+      <c r="BG21" t="str">
+        <f t="shared" si="29"/>
         <v>lclLevelMatrix.push(Cell(27,19,'wall'));</v>
       </c>
     </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4553,7 +4740,7 @@
       <c r="J22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="13" t="s">
         <v>0</v>
       </c>
       <c r="L22" s="2" t="s">
@@ -4565,7 +4752,7 @@
       <c r="N22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="O22" s="13" t="s">
         <v>0</v>
       </c>
       <c r="P22" s="2" t="s">
@@ -4580,7 +4767,7 @@
       <c r="S22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T22" s="2" t="s">
+      <c r="T22" s="13" t="s">
         <v>0</v>
       </c>
       <c r="U22" s="2" t="s">
@@ -4610,120 +4797,124 @@
       <c r="AC22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE22" t="str">
+      <c r="AD22">
         <f t="shared" si="1"/>
-        <v>lclLevelMatrix.push(Cell(0,20,'wall'));</v>
+        <v>400</v>
       </c>
       <c r="AF22" t="str">
         <f t="shared" si="2"/>
-        <v>lclLevelMatrix.push(Cell(1,20,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(0,20,'wall'));</v>
       </c>
       <c r="AG22" t="str">
         <f t="shared" si="3"/>
-        <v>lclLevelMatrix.push(Cell(2,20,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(1,20,'dot'));</v>
       </c>
       <c r="AH22" t="str">
         <f t="shared" si="4"/>
-        <v>lclLevelMatrix.push(Cell(3,20,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(2,20,'wall'));</v>
       </c>
       <c r="AI22" t="str">
         <f t="shared" si="5"/>
-        <v>lclLevelMatrix.push(Cell(4,20,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(3,20,'wall'));</v>
       </c>
       <c r="AJ22" t="str">
         <f t="shared" si="6"/>
-        <v>lclLevelMatrix.push(Cell(5,20,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(4,20,'wall'));</v>
       </c>
       <c r="AK22" t="str">
         <f t="shared" si="7"/>
-        <v>lclLevelMatrix.push(Cell(6,20,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(5,20,'wall'));</v>
       </c>
       <c r="AL22" t="str">
         <f t="shared" si="8"/>
-        <v>lclLevelMatrix.push(Cell(7,20,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(6,20,'dot'));</v>
       </c>
       <c r="AM22" t="str">
         <f t="shared" si="9"/>
-        <v>lclLevelMatrix.push(Cell(8,20,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(7,20,'wall'));</v>
       </c>
       <c r="AN22" t="str">
         <f t="shared" si="10"/>
-        <v>lclLevelMatrix.push(Cell(9,20,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(8,20,'wall'));</v>
       </c>
       <c r="AO22" t="str">
         <f t="shared" si="11"/>
-        <v>lclLevelMatrix.push(Cell(10,20,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(9,20,'wall'));</v>
       </c>
       <c r="AP22" t="str">
         <f t="shared" si="12"/>
-        <v>lclLevelMatrix.push(Cell(11,20,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(10,20,'wall'));</v>
       </c>
       <c r="AQ22" t="str">
         <f t="shared" si="13"/>
-        <v>lclLevelMatrix.push(Cell(12,20,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(11,20,'wall'));</v>
       </c>
       <c r="AR22" t="str">
         <f t="shared" si="14"/>
-        <v>lclLevelMatrix.push(Cell(13,20,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(12,20,'dot'));</v>
       </c>
       <c r="AS22" t="str">
         <f t="shared" si="15"/>
-        <v>lclLevelMatrix.push(Cell(14,20,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(13,20,'wall'));</v>
       </c>
       <c r="AT22" t="str">
         <f t="shared" si="16"/>
-        <v>lclLevelMatrix.push(Cell(15,20,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(14,20,'wall'));</v>
       </c>
       <c r="AU22" t="str">
         <f t="shared" si="17"/>
-        <v>lclLevelMatrix.push(Cell(16,20,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(15,20,'dot'));</v>
       </c>
       <c r="AV22" t="str">
         <f t="shared" si="18"/>
-        <v>lclLevelMatrix.push(Cell(17,20,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(16,20,'wall'));</v>
       </c>
       <c r="AW22" t="str">
         <f t="shared" si="19"/>
-        <v>lclLevelMatrix.push(Cell(18,20,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(17,20,'wall'));</v>
       </c>
       <c r="AX22" t="str">
         <f t="shared" si="20"/>
-        <v>lclLevelMatrix.push(Cell(19,20,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(18,20,'wall'));</v>
       </c>
       <c r="AY22" t="str">
         <f t="shared" si="21"/>
-        <v>lclLevelMatrix.push(Cell(20,20,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(19,20,'wall'));</v>
       </c>
       <c r="AZ22" t="str">
         <f t="shared" si="22"/>
-        <v>lclLevelMatrix.push(Cell(21,20,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(20,20,'wall'));</v>
       </c>
       <c r="BA22" t="str">
         <f t="shared" si="23"/>
-        <v>lclLevelMatrix.push(Cell(22,20,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(21,20,'dot'));</v>
       </c>
       <c r="BB22" t="str">
         <f t="shared" si="24"/>
-        <v>lclLevelMatrix.push(Cell(23,20,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(22,20,'wall'));</v>
       </c>
       <c r="BC22" t="str">
         <f t="shared" si="25"/>
-        <v>lclLevelMatrix.push(Cell(24,20,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(23,20,'wall'));</v>
       </c>
       <c r="BD22" t="str">
         <f t="shared" si="26"/>
-        <v>lclLevelMatrix.push(Cell(25,20,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(24,20,'wall'));</v>
       </c>
       <c r="BE22" t="str">
         <f t="shared" si="27"/>
-        <v>lclLevelMatrix.push(Cell(26,20,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(25,20,'wall'));</v>
       </c>
       <c r="BF22" t="str">
         <f t="shared" si="28"/>
+        <v>lclLevelMatrix.push(Cell(26,20,'dot'));</v>
+      </c>
+      <c r="BG22" t="str">
+        <f t="shared" si="29"/>
         <v>lclLevelMatrix.push(Cell(27,20,'wall'));</v>
       </c>
     </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4754,7 +4945,7 @@
       <c r="J23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" s="13" t="s">
         <v>0</v>
       </c>
       <c r="L23" s="2" t="s">
@@ -4766,7 +4957,7 @@
       <c r="N23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="O23" s="13" t="s">
         <v>0</v>
       </c>
       <c r="P23" s="2" t="s">
@@ -4781,7 +4972,7 @@
       <c r="S23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T23" s="2" t="s">
+      <c r="T23" s="13" t="s">
         <v>0</v>
       </c>
       <c r="U23" s="2" t="s">
@@ -4811,120 +5002,124 @@
       <c r="AC23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE23" t="str">
+      <c r="AD23">
         <f t="shared" si="1"/>
-        <v>lclLevelMatrix.push(Cell(0,21,'wall'));</v>
+        <v>420</v>
       </c>
       <c r="AF23" t="str">
         <f t="shared" si="2"/>
-        <v>lclLevelMatrix.push(Cell(1,21,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(0,21,'wall'));</v>
       </c>
       <c r="AG23" t="str">
         <f t="shared" si="3"/>
-        <v>lclLevelMatrix.push(Cell(2,21,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(1,21,'dot'));</v>
       </c>
       <c r="AH23" t="str">
         <f t="shared" si="4"/>
-        <v>lclLevelMatrix.push(Cell(3,21,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(2,21,'wall'));</v>
       </c>
       <c r="AI23" t="str">
         <f t="shared" si="5"/>
-        <v>lclLevelMatrix.push(Cell(4,21,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(3,21,'wall'));</v>
       </c>
       <c r="AJ23" t="str">
         <f t="shared" si="6"/>
-        <v>lclLevelMatrix.push(Cell(5,21,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(4,21,'wall'));</v>
       </c>
       <c r="AK23" t="str">
         <f t="shared" si="7"/>
-        <v>lclLevelMatrix.push(Cell(6,21,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(5,21,'wall'));</v>
       </c>
       <c r="AL23" t="str">
         <f t="shared" si="8"/>
-        <v>lclLevelMatrix.push(Cell(7,21,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(6,21,'dot'));</v>
       </c>
       <c r="AM23" t="str">
         <f t="shared" si="9"/>
-        <v>lclLevelMatrix.push(Cell(8,21,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(7,21,'wall'));</v>
       </c>
       <c r="AN23" t="str">
         <f t="shared" si="10"/>
-        <v>lclLevelMatrix.push(Cell(9,21,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(8,21,'wall'));</v>
       </c>
       <c r="AO23" t="str">
         <f t="shared" si="11"/>
-        <v>lclLevelMatrix.push(Cell(10,21,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(9,21,'wall'));</v>
       </c>
       <c r="AP23" t="str">
         <f t="shared" si="12"/>
-        <v>lclLevelMatrix.push(Cell(11,21,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(10,21,'wall'));</v>
       </c>
       <c r="AQ23" t="str">
         <f t="shared" si="13"/>
-        <v>lclLevelMatrix.push(Cell(12,21,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(11,21,'wall'));</v>
       </c>
       <c r="AR23" t="str">
         <f t="shared" si="14"/>
-        <v>lclLevelMatrix.push(Cell(13,21,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(12,21,'dot'));</v>
       </c>
       <c r="AS23" t="str">
         <f t="shared" si="15"/>
-        <v>lclLevelMatrix.push(Cell(14,21,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(13,21,'wall'));</v>
       </c>
       <c r="AT23" t="str">
         <f t="shared" si="16"/>
-        <v>lclLevelMatrix.push(Cell(15,21,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(14,21,'wall'));</v>
       </c>
       <c r="AU23" t="str">
         <f t="shared" si="17"/>
-        <v>lclLevelMatrix.push(Cell(16,21,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(15,21,'dot'));</v>
       </c>
       <c r="AV23" t="str">
         <f t="shared" si="18"/>
-        <v>lclLevelMatrix.push(Cell(17,21,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(16,21,'wall'));</v>
       </c>
       <c r="AW23" t="str">
         <f t="shared" si="19"/>
-        <v>lclLevelMatrix.push(Cell(18,21,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(17,21,'wall'));</v>
       </c>
       <c r="AX23" t="str">
         <f t="shared" si="20"/>
-        <v>lclLevelMatrix.push(Cell(19,21,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(18,21,'wall'));</v>
       </c>
       <c r="AY23" t="str">
         <f t="shared" si="21"/>
-        <v>lclLevelMatrix.push(Cell(20,21,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(19,21,'wall'));</v>
       </c>
       <c r="AZ23" t="str">
         <f t="shared" si="22"/>
-        <v>lclLevelMatrix.push(Cell(21,21,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(20,21,'wall'));</v>
       </c>
       <c r="BA23" t="str">
         <f t="shared" si="23"/>
-        <v>lclLevelMatrix.push(Cell(22,21,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(21,21,'dot'));</v>
       </c>
       <c r="BB23" t="str">
         <f t="shared" si="24"/>
-        <v>lclLevelMatrix.push(Cell(23,21,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(22,21,'wall'));</v>
       </c>
       <c r="BC23" t="str">
         <f t="shared" si="25"/>
-        <v>lclLevelMatrix.push(Cell(24,21,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(23,21,'wall'));</v>
       </c>
       <c r="BD23" t="str">
         <f t="shared" si="26"/>
-        <v>lclLevelMatrix.push(Cell(25,21,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(24,21,'wall'));</v>
       </c>
       <c r="BE23" t="str">
         <f t="shared" si="27"/>
-        <v>lclLevelMatrix.push(Cell(26,21,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(25,21,'wall'));</v>
       </c>
       <c r="BF23" t="str">
         <f t="shared" si="28"/>
+        <v>lclLevelMatrix.push(Cell(26,21,'dot'));</v>
+      </c>
+      <c r="BG23" t="str">
+        <f t="shared" si="29"/>
         <v>lclLevelMatrix.push(Cell(27,21,'wall'));</v>
       </c>
     </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4955,7 +5150,7 @@
       <c r="J24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="12" t="s">
         <v>1</v>
       </c>
       <c r="L24" s="1" t="s">
@@ -4967,7 +5162,7 @@
       <c r="N24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="O24" s="13" t="s">
         <v>0</v>
       </c>
       <c r="P24" s="2" t="s">
@@ -4982,7 +5177,7 @@
       <c r="S24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="T24" s="1" t="s">
+      <c r="T24" s="12" t="s">
         <v>1</v>
       </c>
       <c r="U24" s="1" t="s">
@@ -5012,120 +5207,124 @@
       <c r="AC24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE24" t="str">
+      <c r="AD24">
         <f t="shared" si="1"/>
-        <v>lclLevelMatrix.push(Cell(0,22,'wall'));</v>
+        <v>440</v>
       </c>
       <c r="AF24" t="str">
         <f t="shared" si="2"/>
-        <v>lclLevelMatrix.push(Cell(1,22,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(0,22,'wall'));</v>
       </c>
       <c r="AG24" t="str">
         <f t="shared" si="3"/>
-        <v>lclLevelMatrix.push(Cell(2,22,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(1,22,'dot'));</v>
       </c>
       <c r="AH24" t="str">
         <f t="shared" si="4"/>
-        <v>lclLevelMatrix.push(Cell(3,22,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(2,22,'dot'));</v>
       </c>
       <c r="AI24" t="str">
         <f t="shared" si="5"/>
-        <v>lclLevelMatrix.push(Cell(4,22,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(3,22,'wall'));</v>
       </c>
       <c r="AJ24" t="str">
         <f t="shared" si="6"/>
-        <v>lclLevelMatrix.push(Cell(5,22,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(4,22,'wall'));</v>
       </c>
       <c r="AK24" t="str">
         <f t="shared" si="7"/>
-        <v>lclLevelMatrix.push(Cell(6,22,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(5,22,'wall'));</v>
       </c>
       <c r="AL24" t="str">
         <f t="shared" si="8"/>
-        <v>lclLevelMatrix.push(Cell(7,22,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(6,22,'dot'));</v>
       </c>
       <c r="AM24" t="str">
         <f t="shared" si="9"/>
-        <v>lclLevelMatrix.push(Cell(8,22,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(7,22,'dot'));</v>
       </c>
       <c r="AN24" t="str">
         <f t="shared" si="10"/>
-        <v>lclLevelMatrix.push(Cell(9,22,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(8,22,'dot'));</v>
       </c>
       <c r="AO24" t="str">
         <f t="shared" si="11"/>
-        <v>lclLevelMatrix.push(Cell(10,22,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(9,22,'dot'));</v>
       </c>
       <c r="AP24" t="str">
         <f t="shared" si="12"/>
-        <v>lclLevelMatrix.push(Cell(11,22,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(10,22,'dot'));</v>
       </c>
       <c r="AQ24" t="str">
         <f t="shared" si="13"/>
-        <v>lclLevelMatrix.push(Cell(12,22,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(11,22,'dot'));</v>
       </c>
       <c r="AR24" t="str">
         <f t="shared" si="14"/>
-        <v>lclLevelMatrix.push(Cell(13,22,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(12,22,'dot'));</v>
       </c>
       <c r="AS24" t="str">
         <f t="shared" si="15"/>
-        <v>lclLevelMatrix.push(Cell(14,22,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(13,22,'wall'));</v>
       </c>
       <c r="AT24" t="str">
         <f t="shared" si="16"/>
-        <v>lclLevelMatrix.push(Cell(15,22,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(14,22,'wall'));</v>
       </c>
       <c r="AU24" t="str">
         <f t="shared" si="17"/>
-        <v>lclLevelMatrix.push(Cell(16,22,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(15,22,'dot'));</v>
       </c>
       <c r="AV24" t="str">
         <f t="shared" si="18"/>
-        <v>lclLevelMatrix.push(Cell(17,22,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(16,22,'dot'));</v>
       </c>
       <c r="AW24" t="str">
         <f t="shared" si="19"/>
-        <v>lclLevelMatrix.push(Cell(18,22,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(17,22,'dot'));</v>
       </c>
       <c r="AX24" t="str">
         <f t="shared" si="20"/>
-        <v>lclLevelMatrix.push(Cell(19,22,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(18,22,'dot'));</v>
       </c>
       <c r="AY24" t="str">
         <f t="shared" si="21"/>
-        <v>lclLevelMatrix.push(Cell(20,22,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(19,22,'dot'));</v>
       </c>
       <c r="AZ24" t="str">
         <f t="shared" si="22"/>
-        <v>lclLevelMatrix.push(Cell(21,22,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(20,22,'dot'));</v>
       </c>
       <c r="BA24" t="str">
         <f t="shared" si="23"/>
-        <v>lclLevelMatrix.push(Cell(22,22,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(21,22,'dot'));</v>
       </c>
       <c r="BB24" t="str">
         <f t="shared" si="24"/>
-        <v>lclLevelMatrix.push(Cell(23,22,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(22,22,'wall'));</v>
       </c>
       <c r="BC24" t="str">
         <f t="shared" si="25"/>
-        <v>lclLevelMatrix.push(Cell(24,22,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(23,22,'wall'));</v>
       </c>
       <c r="BD24" t="str">
         <f t="shared" si="26"/>
-        <v>lclLevelMatrix.push(Cell(25,22,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(24,22,'wall'));</v>
       </c>
       <c r="BE24" t="str">
         <f t="shared" si="27"/>
-        <v>lclLevelMatrix.push(Cell(26,22,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(25,22,'dot'));</v>
       </c>
       <c r="BF24" t="str">
         <f t="shared" si="28"/>
+        <v>lclLevelMatrix.push(Cell(26,22,'dot'));</v>
+      </c>
+      <c r="BG24" t="str">
+        <f t="shared" si="29"/>
         <v>lclLevelMatrix.push(Cell(27,22,'wall'));</v>
       </c>
     </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -5156,7 +5355,7 @@
       <c r="J25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" s="12" t="s">
         <v>1</v>
       </c>
       <c r="L25" s="2" t="s">
@@ -5168,7 +5367,7 @@
       <c r="N25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="O25" s="13" t="s">
         <v>0</v>
       </c>
       <c r="P25" s="2" t="s">
@@ -5183,7 +5382,7 @@
       <c r="S25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T25" s="1" t="s">
+      <c r="T25" s="12" t="s">
         <v>1</v>
       </c>
       <c r="U25" s="2" t="s">
@@ -5213,120 +5412,124 @@
       <c r="AC25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE25" t="str">
+      <c r="AD25">
         <f t="shared" si="1"/>
-        <v>lclLevelMatrix.push(Cell(0,23,'wall'));</v>
+        <v>460</v>
       </c>
       <c r="AF25" t="str">
         <f t="shared" si="2"/>
-        <v>lclLevelMatrix.push(Cell(1,23,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(0,23,'wall'));</v>
       </c>
       <c r="AG25" t="str">
         <f t="shared" si="3"/>
-        <v>lclLevelMatrix.push(Cell(2,23,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(1,23,'wall'));</v>
       </c>
       <c r="AH25" t="str">
         <f t="shared" si="4"/>
-        <v>lclLevelMatrix.push(Cell(3,23,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(2,23,'dot'));</v>
       </c>
       <c r="AI25" t="str">
         <f t="shared" si="5"/>
-        <v>lclLevelMatrix.push(Cell(4,23,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(3,23,'wall'));</v>
       </c>
       <c r="AJ25" t="str">
         <f t="shared" si="6"/>
-        <v>lclLevelMatrix.push(Cell(5,23,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(4,23,'wall'));</v>
       </c>
       <c r="AK25" t="str">
         <f t="shared" si="7"/>
-        <v>lclLevelMatrix.push(Cell(6,23,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(5,23,'wall'));</v>
       </c>
       <c r="AL25" t="str">
         <f t="shared" si="8"/>
-        <v>lclLevelMatrix.push(Cell(7,23,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(6,23,'dot'));</v>
       </c>
       <c r="AM25" t="str">
         <f t="shared" si="9"/>
-        <v>lclLevelMatrix.push(Cell(8,23,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(7,23,'wall'));</v>
       </c>
       <c r="AN25" t="str">
         <f t="shared" si="10"/>
-        <v>lclLevelMatrix.push(Cell(9,23,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(8,23,'wall'));</v>
       </c>
       <c r="AO25" t="str">
         <f t="shared" si="11"/>
-        <v>lclLevelMatrix.push(Cell(10,23,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(9,23,'dot'));</v>
       </c>
       <c r="AP25" t="str">
         <f t="shared" si="12"/>
-        <v>lclLevelMatrix.push(Cell(11,23,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(10,23,'wall'));</v>
       </c>
       <c r="AQ25" t="str">
         <f t="shared" si="13"/>
-        <v>lclLevelMatrix.push(Cell(12,23,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(11,23,'wall'));</v>
       </c>
       <c r="AR25" t="str">
         <f t="shared" si="14"/>
-        <v>lclLevelMatrix.push(Cell(13,23,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(12,23,'wall'));</v>
       </c>
       <c r="AS25" t="str">
         <f t="shared" si="15"/>
-        <v>lclLevelMatrix.push(Cell(14,23,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(13,23,'wall'));</v>
       </c>
       <c r="AT25" t="str">
         <f t="shared" si="16"/>
-        <v>lclLevelMatrix.push(Cell(15,23,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(14,23,'wall'));</v>
       </c>
       <c r="AU25" t="str">
         <f t="shared" si="17"/>
-        <v>lclLevelMatrix.push(Cell(16,23,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(15,23,'wall'));</v>
       </c>
       <c r="AV25" t="str">
         <f t="shared" si="18"/>
-        <v>lclLevelMatrix.push(Cell(17,23,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(16,23,'wall'));</v>
       </c>
       <c r="AW25" t="str">
         <f t="shared" si="19"/>
-        <v>lclLevelMatrix.push(Cell(18,23,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(17,23,'wall'));</v>
       </c>
       <c r="AX25" t="str">
         <f t="shared" si="20"/>
-        <v>lclLevelMatrix.push(Cell(19,23,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(18,23,'dot'));</v>
       </c>
       <c r="AY25" t="str">
         <f t="shared" si="21"/>
-        <v>lclLevelMatrix.push(Cell(20,23,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(19,23,'wall'));</v>
       </c>
       <c r="AZ25" t="str">
         <f t="shared" si="22"/>
-        <v>lclLevelMatrix.push(Cell(21,23,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(20,23,'wall'));</v>
       </c>
       <c r="BA25" t="str">
         <f t="shared" si="23"/>
-        <v>lclLevelMatrix.push(Cell(22,23,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(21,23,'dot'));</v>
       </c>
       <c r="BB25" t="str">
         <f t="shared" si="24"/>
-        <v>lclLevelMatrix.push(Cell(23,23,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(22,23,'wall'));</v>
       </c>
       <c r="BC25" t="str">
         <f t="shared" si="25"/>
-        <v>lclLevelMatrix.push(Cell(24,23,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(23,23,'wall'));</v>
       </c>
       <c r="BD25" t="str">
         <f t="shared" si="26"/>
-        <v>lclLevelMatrix.push(Cell(25,23,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(24,23,'wall'));</v>
       </c>
       <c r="BE25" t="str">
         <f t="shared" si="27"/>
-        <v>lclLevelMatrix.push(Cell(26,23,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(25,23,'dot'));</v>
       </c>
       <c r="BF25" t="str">
         <f t="shared" si="28"/>
+        <v>lclLevelMatrix.push(Cell(26,23,'wall'));</v>
+      </c>
+      <c r="BG25" t="str">
+        <f t="shared" si="29"/>
         <v>lclLevelMatrix.push(Cell(27,23,'wall'));</v>
       </c>
     </row>
-    <row r="26" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -5357,7 +5560,7 @@
       <c r="J26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" s="12" t="s">
         <v>1</v>
       </c>
       <c r="L26" s="2" t="s">
@@ -5369,7 +5572,7 @@
       <c r="N26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="O26" s="13" t="s">
         <v>0</v>
       </c>
       <c r="P26" s="2" t="s">
@@ -5384,7 +5587,7 @@
       <c r="S26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T26" s="1" t="s">
+      <c r="T26" s="12" t="s">
         <v>1</v>
       </c>
       <c r="U26" s="2" t="s">
@@ -5414,120 +5617,124 @@
       <c r="AC26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE26" t="str">
+      <c r="AD26">
         <f t="shared" si="1"/>
-        <v>lclLevelMatrix.push(Cell(0,24,'wall'));</v>
+        <v>480</v>
       </c>
       <c r="AF26" t="str">
         <f t="shared" si="2"/>
-        <v>lclLevelMatrix.push(Cell(1,24,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(0,24,'wall'));</v>
       </c>
       <c r="AG26" t="str">
         <f t="shared" si="3"/>
-        <v>lclLevelMatrix.push(Cell(2,24,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(1,24,'wall'));</v>
       </c>
       <c r="AH26" t="str">
         <f t="shared" si="4"/>
-        <v>lclLevelMatrix.push(Cell(3,24,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(2,24,'dot'));</v>
       </c>
       <c r="AI26" t="str">
         <f t="shared" si="5"/>
-        <v>lclLevelMatrix.push(Cell(4,24,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(3,24,'wall'));</v>
       </c>
       <c r="AJ26" t="str">
         <f t="shared" si="6"/>
-        <v>lclLevelMatrix.push(Cell(5,24,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(4,24,'wall'));</v>
       </c>
       <c r="AK26" t="str">
         <f t="shared" si="7"/>
-        <v>lclLevelMatrix.push(Cell(6,24,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(5,24,'wall'));</v>
       </c>
       <c r="AL26" t="str">
         <f t="shared" si="8"/>
-        <v>lclLevelMatrix.push(Cell(7,24,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(6,24,'dot'));</v>
       </c>
       <c r="AM26" t="str">
         <f t="shared" si="9"/>
-        <v>lclLevelMatrix.push(Cell(8,24,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(7,24,'wall'));</v>
       </c>
       <c r="AN26" t="str">
         <f t="shared" si="10"/>
-        <v>lclLevelMatrix.push(Cell(9,24,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(8,24,'wall'));</v>
       </c>
       <c r="AO26" t="str">
         <f t="shared" si="11"/>
-        <v>lclLevelMatrix.push(Cell(10,24,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(9,24,'dot'));</v>
       </c>
       <c r="AP26" t="str">
         <f t="shared" si="12"/>
-        <v>lclLevelMatrix.push(Cell(11,24,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(10,24,'wall'));</v>
       </c>
       <c r="AQ26" t="str">
         <f t="shared" si="13"/>
-        <v>lclLevelMatrix.push(Cell(12,24,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(11,24,'wall'));</v>
       </c>
       <c r="AR26" t="str">
         <f t="shared" si="14"/>
-        <v>lclLevelMatrix.push(Cell(13,24,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(12,24,'wall'));</v>
       </c>
       <c r="AS26" t="str">
         <f t="shared" si="15"/>
-        <v>lclLevelMatrix.push(Cell(14,24,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(13,24,'wall'));</v>
       </c>
       <c r="AT26" t="str">
         <f t="shared" si="16"/>
-        <v>lclLevelMatrix.push(Cell(15,24,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(14,24,'wall'));</v>
       </c>
       <c r="AU26" t="str">
         <f t="shared" si="17"/>
-        <v>lclLevelMatrix.push(Cell(16,24,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(15,24,'wall'));</v>
       </c>
       <c r="AV26" t="str">
         <f t="shared" si="18"/>
-        <v>lclLevelMatrix.push(Cell(17,24,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(16,24,'wall'));</v>
       </c>
       <c r="AW26" t="str">
         <f t="shared" si="19"/>
-        <v>lclLevelMatrix.push(Cell(18,24,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(17,24,'wall'));</v>
       </c>
       <c r="AX26" t="str">
         <f t="shared" si="20"/>
-        <v>lclLevelMatrix.push(Cell(19,24,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(18,24,'dot'));</v>
       </c>
       <c r="AY26" t="str">
         <f t="shared" si="21"/>
-        <v>lclLevelMatrix.push(Cell(20,24,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(19,24,'wall'));</v>
       </c>
       <c r="AZ26" t="str">
         <f t="shared" si="22"/>
-        <v>lclLevelMatrix.push(Cell(21,24,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(20,24,'wall'));</v>
       </c>
       <c r="BA26" t="str">
         <f t="shared" si="23"/>
-        <v>lclLevelMatrix.push(Cell(22,24,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(21,24,'dot'));</v>
       </c>
       <c r="BB26" t="str">
         <f t="shared" si="24"/>
-        <v>lclLevelMatrix.push(Cell(23,24,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(22,24,'wall'));</v>
       </c>
       <c r="BC26" t="str">
         <f t="shared" si="25"/>
-        <v>lclLevelMatrix.push(Cell(24,24,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(23,24,'wall'));</v>
       </c>
       <c r="BD26" t="str">
         <f t="shared" si="26"/>
-        <v>lclLevelMatrix.push(Cell(25,24,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(24,24,'wall'));</v>
       </c>
       <c r="BE26" t="str">
         <f t="shared" si="27"/>
-        <v>lclLevelMatrix.push(Cell(26,24,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(25,24,'dot'));</v>
       </c>
       <c r="BF26" t="str">
         <f t="shared" si="28"/>
+        <v>lclLevelMatrix.push(Cell(26,24,'wall'));</v>
+      </c>
+      <c r="BG26" t="str">
+        <f t="shared" si="29"/>
         <v>lclLevelMatrix.push(Cell(27,24,'wall'));</v>
       </c>
     </row>
-    <row r="27" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -5558,7 +5765,7 @@
       <c r="J27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K27" s="12" t="s">
         <v>1</v>
       </c>
       <c r="L27" s="1" t="s">
@@ -5570,7 +5777,7 @@
       <c r="N27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="O27" s="13" t="s">
         <v>0</v>
       </c>
       <c r="P27" s="2" t="s">
@@ -5585,7 +5792,7 @@
       <c r="S27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="T27" s="1" t="s">
+      <c r="T27" s="12" t="s">
         <v>1</v>
       </c>
       <c r="U27" s="2" t="s">
@@ -5615,120 +5822,124 @@
       <c r="AC27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE27" t="str">
+      <c r="AD27">
         <f t="shared" si="1"/>
-        <v>lclLevelMatrix.push(Cell(0,25,'wall'));</v>
+        <v>500</v>
       </c>
       <c r="AF27" t="str">
         <f t="shared" si="2"/>
-        <v>lclLevelMatrix.push(Cell(1,25,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(0,25,'wall'));</v>
       </c>
       <c r="AG27" t="str">
         <f t="shared" si="3"/>
-        <v>lclLevelMatrix.push(Cell(2,25,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(1,25,'dot'));</v>
       </c>
       <c r="AH27" t="str">
         <f t="shared" si="4"/>
-        <v>lclLevelMatrix.push(Cell(3,25,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(2,25,'dot'));</v>
       </c>
       <c r="AI27" t="str">
         <f t="shared" si="5"/>
-        <v>lclLevelMatrix.push(Cell(4,25,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(3,25,'dot'));</v>
       </c>
       <c r="AJ27" t="str">
         <f t="shared" si="6"/>
-        <v>lclLevelMatrix.push(Cell(5,25,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(4,25,'dot'));</v>
       </c>
       <c r="AK27" t="str">
         <f t="shared" si="7"/>
-        <v>lclLevelMatrix.push(Cell(6,25,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(5,25,'dot'));</v>
       </c>
       <c r="AL27" t="str">
         <f t="shared" si="8"/>
-        <v>lclLevelMatrix.push(Cell(7,25,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(6,25,'dot'));</v>
       </c>
       <c r="AM27" t="str">
         <f t="shared" si="9"/>
-        <v>lclLevelMatrix.push(Cell(8,25,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(7,25,'wall'));</v>
       </c>
       <c r="AN27" t="str">
         <f t="shared" si="10"/>
-        <v>lclLevelMatrix.push(Cell(9,25,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(8,25,'wall'));</v>
       </c>
       <c r="AO27" t="str">
         <f t="shared" si="11"/>
-        <v>lclLevelMatrix.push(Cell(10,25,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(9,25,'dot'));</v>
       </c>
       <c r="AP27" t="str">
         <f t="shared" si="12"/>
-        <v>lclLevelMatrix.push(Cell(11,25,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(10,25,'dot'));</v>
       </c>
       <c r="AQ27" t="str">
         <f t="shared" si="13"/>
-        <v>lclLevelMatrix.push(Cell(12,25,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(11,25,'dot'));</v>
       </c>
       <c r="AR27" t="str">
         <f t="shared" si="14"/>
-        <v>lclLevelMatrix.push(Cell(13,25,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(12,25,'dot'));</v>
       </c>
       <c r="AS27" t="str">
         <f t="shared" si="15"/>
-        <v>lclLevelMatrix.push(Cell(14,25,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(13,25,'wall'));</v>
       </c>
       <c r="AT27" t="str">
         <f t="shared" si="16"/>
-        <v>lclLevelMatrix.push(Cell(15,25,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(14,25,'wall'));</v>
       </c>
       <c r="AU27" t="str">
         <f t="shared" si="17"/>
-        <v>lclLevelMatrix.push(Cell(16,25,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(15,25,'dot'));</v>
       </c>
       <c r="AV27" t="str">
         <f t="shared" si="18"/>
-        <v>lclLevelMatrix.push(Cell(17,25,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(16,25,'dot'));</v>
       </c>
       <c r="AW27" t="str">
         <f t="shared" si="19"/>
-        <v>lclLevelMatrix.push(Cell(18,25,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(17,25,'dot'));</v>
       </c>
       <c r="AX27" t="str">
         <f t="shared" si="20"/>
-        <v>lclLevelMatrix.push(Cell(19,25,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(18,25,'dot'));</v>
       </c>
       <c r="AY27" t="str">
         <f t="shared" si="21"/>
-        <v>lclLevelMatrix.push(Cell(20,25,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(19,25,'wall'));</v>
       </c>
       <c r="AZ27" t="str">
         <f t="shared" si="22"/>
-        <v>lclLevelMatrix.push(Cell(21,25,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(20,25,'wall'));</v>
       </c>
       <c r="BA27" t="str">
         <f t="shared" si="23"/>
-        <v>lclLevelMatrix.push(Cell(22,25,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(21,25,'dot'));</v>
       </c>
       <c r="BB27" t="str">
         <f t="shared" si="24"/>
-        <v>lclLevelMatrix.push(Cell(23,25,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(22,25,'dot'));</v>
       </c>
       <c r="BC27" t="str">
         <f t="shared" si="25"/>
-        <v>lclLevelMatrix.push(Cell(24,25,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(23,25,'dot'));</v>
       </c>
       <c r="BD27" t="str">
         <f t="shared" si="26"/>
-        <v>lclLevelMatrix.push(Cell(25,25,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(24,25,'dot'));</v>
       </c>
       <c r="BE27" t="str">
         <f t="shared" si="27"/>
-        <v>lclLevelMatrix.push(Cell(26,25,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(25,25,'dot'));</v>
       </c>
       <c r="BF27" t="str">
         <f t="shared" si="28"/>
+        <v>lclLevelMatrix.push(Cell(26,25,'dot'));</v>
+      </c>
+      <c r="BG27" t="str">
+        <f t="shared" si="29"/>
         <v>lclLevelMatrix.push(Cell(27,25,'wall'));</v>
       </c>
     </row>
-    <row r="28" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -5759,7 +5970,7 @@
       <c r="J28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" s="13" t="s">
         <v>0</v>
       </c>
       <c r="L28" s="2" t="s">
@@ -5771,7 +5982,7 @@
       <c r="N28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="O28" s="13" t="s">
         <v>0</v>
       </c>
       <c r="P28" s="2" t="s">
@@ -5786,7 +5997,7 @@
       <c r="S28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T28" s="2" t="s">
+      <c r="T28" s="13" t="s">
         <v>0</v>
       </c>
       <c r="U28" s="2" t="s">
@@ -5816,120 +6027,124 @@
       <c r="AC28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE28" t="str">
+      <c r="AD28">
         <f t="shared" si="1"/>
-        <v>lclLevelMatrix.push(Cell(0,26,'wall'));</v>
+        <v>520</v>
       </c>
       <c r="AF28" t="str">
         <f t="shared" si="2"/>
-        <v>lclLevelMatrix.push(Cell(1,26,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(0,26,'wall'));</v>
       </c>
       <c r="AG28" t="str">
         <f t="shared" si="3"/>
-        <v>lclLevelMatrix.push(Cell(2,26,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(1,26,'dot'));</v>
       </c>
       <c r="AH28" t="str">
         <f t="shared" si="4"/>
-        <v>lclLevelMatrix.push(Cell(3,26,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(2,26,'wall'));</v>
       </c>
       <c r="AI28" t="str">
         <f t="shared" si="5"/>
-        <v>lclLevelMatrix.push(Cell(4,26,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(3,26,'wall'));</v>
       </c>
       <c r="AJ28" t="str">
         <f t="shared" si="6"/>
-        <v>lclLevelMatrix.push(Cell(5,26,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(4,26,'wall'));</v>
       </c>
       <c r="AK28" t="str">
         <f t="shared" si="7"/>
-        <v>lclLevelMatrix.push(Cell(6,26,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(5,26,'wall'));</v>
       </c>
       <c r="AL28" t="str">
         <f t="shared" si="8"/>
-        <v>lclLevelMatrix.push(Cell(7,26,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(6,26,'dot'));</v>
       </c>
       <c r="AM28" t="str">
         <f t="shared" si="9"/>
-        <v>lclLevelMatrix.push(Cell(8,26,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(7,26,'wall'));</v>
       </c>
       <c r="AN28" t="str">
         <f t="shared" si="10"/>
-        <v>lclLevelMatrix.push(Cell(9,26,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(8,26,'wall'));</v>
       </c>
       <c r="AO28" t="str">
         <f t="shared" si="11"/>
-        <v>lclLevelMatrix.push(Cell(10,26,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(9,26,'wall'));</v>
       </c>
       <c r="AP28" t="str">
         <f t="shared" si="12"/>
-        <v>lclLevelMatrix.push(Cell(11,26,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(10,26,'wall'));</v>
       </c>
       <c r="AQ28" t="str">
         <f t="shared" si="13"/>
-        <v>lclLevelMatrix.push(Cell(12,26,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(11,26,'wall'));</v>
       </c>
       <c r="AR28" t="str">
         <f t="shared" si="14"/>
-        <v>lclLevelMatrix.push(Cell(13,26,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(12,26,'dot'));</v>
       </c>
       <c r="AS28" t="str">
         <f t="shared" si="15"/>
-        <v>lclLevelMatrix.push(Cell(14,26,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(13,26,'wall'));</v>
       </c>
       <c r="AT28" t="str">
         <f t="shared" si="16"/>
-        <v>lclLevelMatrix.push(Cell(15,26,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(14,26,'wall'));</v>
       </c>
       <c r="AU28" t="str">
         <f t="shared" si="17"/>
-        <v>lclLevelMatrix.push(Cell(16,26,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(15,26,'dot'));</v>
       </c>
       <c r="AV28" t="str">
         <f t="shared" si="18"/>
-        <v>lclLevelMatrix.push(Cell(17,26,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(16,26,'wall'));</v>
       </c>
       <c r="AW28" t="str">
         <f t="shared" si="19"/>
-        <v>lclLevelMatrix.push(Cell(18,26,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(17,26,'wall'));</v>
       </c>
       <c r="AX28" t="str">
         <f t="shared" si="20"/>
-        <v>lclLevelMatrix.push(Cell(19,26,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(18,26,'wall'));</v>
       </c>
       <c r="AY28" t="str">
         <f t="shared" si="21"/>
-        <v>lclLevelMatrix.push(Cell(20,26,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(19,26,'wall'));</v>
       </c>
       <c r="AZ28" t="str">
         <f t="shared" si="22"/>
-        <v>lclLevelMatrix.push(Cell(21,26,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(20,26,'wall'));</v>
       </c>
       <c r="BA28" t="str">
         <f t="shared" si="23"/>
-        <v>lclLevelMatrix.push(Cell(22,26,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(21,26,'dot'));</v>
       </c>
       <c r="BB28" t="str">
         <f t="shared" si="24"/>
-        <v>lclLevelMatrix.push(Cell(23,26,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(22,26,'wall'));</v>
       </c>
       <c r="BC28" t="str">
         <f t="shared" si="25"/>
-        <v>lclLevelMatrix.push(Cell(24,26,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(23,26,'wall'));</v>
       </c>
       <c r="BD28" t="str">
         <f t="shared" si="26"/>
-        <v>lclLevelMatrix.push(Cell(25,26,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(24,26,'wall'));</v>
       </c>
       <c r="BE28" t="str">
         <f t="shared" si="27"/>
-        <v>lclLevelMatrix.push(Cell(26,26,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(25,26,'wall'));</v>
       </c>
       <c r="BF28" t="str">
         <f t="shared" si="28"/>
+        <v>lclLevelMatrix.push(Cell(26,26,'dot'));</v>
+      </c>
+      <c r="BG28" t="str">
+        <f t="shared" si="29"/>
         <v>lclLevelMatrix.push(Cell(27,26,'wall'));</v>
       </c>
     </row>
-    <row r="29" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -5960,7 +6175,7 @@
       <c r="J29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" s="13" t="s">
         <v>0</v>
       </c>
       <c r="L29" s="2" t="s">
@@ -5972,7 +6187,7 @@
       <c r="N29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="O29" s="13" t="s">
         <v>0</v>
       </c>
       <c r="P29" s="2" t="s">
@@ -5987,7 +6202,7 @@
       <c r="S29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T29" s="2" t="s">
+      <c r="T29" s="13" t="s">
         <v>0</v>
       </c>
       <c r="U29" s="2" t="s">
@@ -6017,120 +6232,124 @@
       <c r="AC29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE29" t="str">
+      <c r="AD29">
         <f t="shared" si="1"/>
-        <v>lclLevelMatrix.push(Cell(0,27,'wall'));</v>
+        <v>540</v>
       </c>
       <c r="AF29" t="str">
         <f t="shared" si="2"/>
-        <v>lclLevelMatrix.push(Cell(1,27,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(0,27,'wall'));</v>
       </c>
       <c r="AG29" t="str">
         <f t="shared" si="3"/>
-        <v>lclLevelMatrix.push(Cell(2,27,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(1,27,'dot'));</v>
       </c>
       <c r="AH29" t="str">
         <f t="shared" si="4"/>
-        <v>lclLevelMatrix.push(Cell(3,27,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(2,27,'wall'));</v>
       </c>
       <c r="AI29" t="str">
         <f t="shared" si="5"/>
-        <v>lclLevelMatrix.push(Cell(4,27,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(3,27,'wall'));</v>
       </c>
       <c r="AJ29" t="str">
         <f t="shared" si="6"/>
-        <v>lclLevelMatrix.push(Cell(5,27,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(4,27,'wall'));</v>
       </c>
       <c r="AK29" t="str">
         <f t="shared" si="7"/>
-        <v>lclLevelMatrix.push(Cell(6,27,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(5,27,'wall'));</v>
       </c>
       <c r="AL29" t="str">
         <f t="shared" si="8"/>
-        <v>lclLevelMatrix.push(Cell(7,27,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(6,27,'dot'));</v>
       </c>
       <c r="AM29" t="str">
         <f t="shared" si="9"/>
-        <v>lclLevelMatrix.push(Cell(8,27,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(7,27,'wall'));</v>
       </c>
       <c r="AN29" t="str">
         <f t="shared" si="10"/>
-        <v>lclLevelMatrix.push(Cell(9,27,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(8,27,'wall'));</v>
       </c>
       <c r="AO29" t="str">
         <f t="shared" si="11"/>
-        <v>lclLevelMatrix.push(Cell(10,27,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(9,27,'wall'));</v>
       </c>
       <c r="AP29" t="str">
         <f t="shared" si="12"/>
-        <v>lclLevelMatrix.push(Cell(11,27,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(10,27,'wall'));</v>
       </c>
       <c r="AQ29" t="str">
         <f t="shared" si="13"/>
-        <v>lclLevelMatrix.push(Cell(12,27,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(11,27,'wall'));</v>
       </c>
       <c r="AR29" t="str">
         <f t="shared" si="14"/>
-        <v>lclLevelMatrix.push(Cell(13,27,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(12,27,'dot'));</v>
       </c>
       <c r="AS29" t="str">
         <f t="shared" si="15"/>
-        <v>lclLevelMatrix.push(Cell(14,27,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(13,27,'wall'));</v>
       </c>
       <c r="AT29" t="str">
         <f t="shared" si="16"/>
-        <v>lclLevelMatrix.push(Cell(15,27,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(14,27,'wall'));</v>
       </c>
       <c r="AU29" t="str">
         <f t="shared" si="17"/>
-        <v>lclLevelMatrix.push(Cell(16,27,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(15,27,'dot'));</v>
       </c>
       <c r="AV29" t="str">
         <f t="shared" si="18"/>
-        <v>lclLevelMatrix.push(Cell(17,27,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(16,27,'wall'));</v>
       </c>
       <c r="AW29" t="str">
         <f t="shared" si="19"/>
-        <v>lclLevelMatrix.push(Cell(18,27,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(17,27,'wall'));</v>
       </c>
       <c r="AX29" t="str">
         <f t="shared" si="20"/>
-        <v>lclLevelMatrix.push(Cell(19,27,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(18,27,'wall'));</v>
       </c>
       <c r="AY29" t="str">
         <f t="shared" si="21"/>
-        <v>lclLevelMatrix.push(Cell(20,27,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(19,27,'wall'));</v>
       </c>
       <c r="AZ29" t="str">
         <f t="shared" si="22"/>
-        <v>lclLevelMatrix.push(Cell(21,27,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(20,27,'wall'));</v>
       </c>
       <c r="BA29" t="str">
         <f t="shared" si="23"/>
-        <v>lclLevelMatrix.push(Cell(22,27,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(21,27,'dot'));</v>
       </c>
       <c r="BB29" t="str">
         <f t="shared" si="24"/>
-        <v>lclLevelMatrix.push(Cell(23,27,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(22,27,'wall'));</v>
       </c>
       <c r="BC29" t="str">
         <f t="shared" si="25"/>
-        <v>lclLevelMatrix.push(Cell(24,27,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(23,27,'wall'));</v>
       </c>
       <c r="BD29" t="str">
         <f t="shared" si="26"/>
-        <v>lclLevelMatrix.push(Cell(25,27,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(24,27,'wall'));</v>
       </c>
       <c r="BE29" t="str">
         <f t="shared" si="27"/>
-        <v>lclLevelMatrix.push(Cell(26,27,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(25,27,'wall'));</v>
       </c>
       <c r="BF29" t="str">
         <f t="shared" si="28"/>
+        <v>lclLevelMatrix.push(Cell(26,27,'dot'));</v>
+      </c>
+      <c r="BG29" t="str">
+        <f t="shared" si="29"/>
         <v>lclLevelMatrix.push(Cell(27,27,'wall'));</v>
       </c>
     </row>
-    <row r="30" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -6161,7 +6380,7 @@
       <c r="J30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K30" s="12" t="s">
         <v>1</v>
       </c>
       <c r="L30" s="1" t="s">
@@ -6173,7 +6392,7 @@
       <c r="N30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="O30" s="12" t="s">
         <v>1</v>
       </c>
       <c r="P30" s="1" t="s">
@@ -6188,7 +6407,7 @@
       <c r="S30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="T30" s="1" t="s">
+      <c r="T30" s="12" t="s">
         <v>1</v>
       </c>
       <c r="U30" s="1" t="s">
@@ -6218,120 +6437,124 @@
       <c r="AC30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE30" t="str">
+      <c r="AD30">
         <f t="shared" si="1"/>
-        <v>lclLevelMatrix.push(Cell(0,28,'wall'));</v>
+        <v>560</v>
       </c>
       <c r="AF30" t="str">
         <f t="shared" si="2"/>
-        <v>lclLevelMatrix.push(Cell(1,28,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(0,28,'wall'));</v>
       </c>
       <c r="AG30" t="str">
         <f t="shared" si="3"/>
-        <v>lclLevelMatrix.push(Cell(2,28,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(1,28,'dot'));</v>
       </c>
       <c r="AH30" t="str">
         <f t="shared" si="4"/>
-        <v>lclLevelMatrix.push(Cell(3,28,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(2,28,'dot'));</v>
       </c>
       <c r="AI30" t="str">
         <f t="shared" si="5"/>
-        <v>lclLevelMatrix.push(Cell(4,28,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(3,28,'dot'));</v>
       </c>
       <c r="AJ30" t="str">
         <f t="shared" si="6"/>
-        <v>lclLevelMatrix.push(Cell(5,28,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(4,28,'dot'));</v>
       </c>
       <c r="AK30" t="str">
         <f t="shared" si="7"/>
-        <v>lclLevelMatrix.push(Cell(6,28,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(5,28,'dot'));</v>
       </c>
       <c r="AL30" t="str">
         <f t="shared" si="8"/>
-        <v>lclLevelMatrix.push(Cell(7,28,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(6,28,'dot'));</v>
       </c>
       <c r="AM30" t="str">
         <f t="shared" si="9"/>
-        <v>lclLevelMatrix.push(Cell(8,28,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(7,28,'dot'));</v>
       </c>
       <c r="AN30" t="str">
         <f t="shared" si="10"/>
-        <v>lclLevelMatrix.push(Cell(9,28,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(8,28,'dot'));</v>
       </c>
       <c r="AO30" t="str">
         <f t="shared" si="11"/>
-        <v>lclLevelMatrix.push(Cell(10,28,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(9,28,'dot'));</v>
       </c>
       <c r="AP30" t="str">
         <f t="shared" si="12"/>
-        <v>lclLevelMatrix.push(Cell(11,28,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(10,28,'dot'));</v>
       </c>
       <c r="AQ30" t="str">
         <f t="shared" si="13"/>
-        <v>lclLevelMatrix.push(Cell(12,28,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(11,28,'dot'));</v>
       </c>
       <c r="AR30" t="str">
         <f t="shared" si="14"/>
-        <v>lclLevelMatrix.push(Cell(13,28,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(12,28,'dot'));</v>
       </c>
       <c r="AS30" t="str">
         <f t="shared" si="15"/>
-        <v>lclLevelMatrix.push(Cell(14,28,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(13,28,'dot'));</v>
       </c>
       <c r="AT30" t="str">
         <f t="shared" si="16"/>
-        <v>lclLevelMatrix.push(Cell(15,28,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(14,28,'dot'));</v>
       </c>
       <c r="AU30" t="str">
         <f t="shared" si="17"/>
-        <v>lclLevelMatrix.push(Cell(16,28,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(15,28,'dot'));</v>
       </c>
       <c r="AV30" t="str">
         <f t="shared" si="18"/>
-        <v>lclLevelMatrix.push(Cell(17,28,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(16,28,'dot'));</v>
       </c>
       <c r="AW30" t="str">
         <f t="shared" si="19"/>
-        <v>lclLevelMatrix.push(Cell(18,28,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(17,28,'dot'));</v>
       </c>
       <c r="AX30" t="str">
         <f t="shared" si="20"/>
-        <v>lclLevelMatrix.push(Cell(19,28,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(18,28,'dot'));</v>
       </c>
       <c r="AY30" t="str">
         <f t="shared" si="21"/>
-        <v>lclLevelMatrix.push(Cell(20,28,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(19,28,'dot'));</v>
       </c>
       <c r="AZ30" t="str">
         <f t="shared" si="22"/>
-        <v>lclLevelMatrix.push(Cell(21,28,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(20,28,'dot'));</v>
       </c>
       <c r="BA30" t="str">
         <f t="shared" si="23"/>
-        <v>lclLevelMatrix.push(Cell(22,28,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(21,28,'dot'));</v>
       </c>
       <c r="BB30" t="str">
         <f t="shared" si="24"/>
-        <v>lclLevelMatrix.push(Cell(23,28,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(22,28,'dot'));</v>
       </c>
       <c r="BC30" t="str">
         <f t="shared" si="25"/>
-        <v>lclLevelMatrix.push(Cell(24,28,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(23,28,'dot'));</v>
       </c>
       <c r="BD30" t="str">
         <f t="shared" si="26"/>
-        <v>lclLevelMatrix.push(Cell(25,28,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(24,28,'dot'));</v>
       </c>
       <c r="BE30" t="str">
         <f t="shared" si="27"/>
-        <v>lclLevelMatrix.push(Cell(26,28,'dot'));</v>
+        <v>lclLevelMatrix.push(Cell(25,28,'dot'));</v>
       </c>
       <c r="BF30" t="str">
         <f t="shared" si="28"/>
+        <v>lclLevelMatrix.push(Cell(26,28,'dot'));</v>
+      </c>
+      <c r="BG30" t="str">
+        <f t="shared" si="29"/>
         <v>lclLevelMatrix.push(Cell(27,28,'wall'));</v>
       </c>
     </row>
-    <row r="31" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -6362,7 +6585,7 @@
       <c r="J31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K31" s="13" t="s">
         <v>0</v>
       </c>
       <c r="L31" s="2" t="s">
@@ -6374,7 +6597,7 @@
       <c r="N31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="O31" s="13" t="s">
         <v>0</v>
       </c>
       <c r="P31" s="2" t="s">
@@ -6389,7 +6612,7 @@
       <c r="S31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T31" s="2" t="s">
+      <c r="T31" s="13" t="s">
         <v>0</v>
       </c>
       <c r="U31" s="2" t="s">
@@ -6419,232 +6642,348 @@
       <c r="AC31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE31" t="str">
+      <c r="AD31">
         <f t="shared" si="1"/>
-        <v>lclLevelMatrix.push(Cell(0,29,'wall'));</v>
+        <v>580</v>
       </c>
       <c r="AF31" t="str">
         <f t="shared" si="2"/>
-        <v>lclLevelMatrix.push(Cell(1,29,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(0,29,'wall'));</v>
       </c>
       <c r="AG31" t="str">
         <f t="shared" si="3"/>
-        <v>lclLevelMatrix.push(Cell(2,29,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(1,29,'wall'));</v>
       </c>
       <c r="AH31" t="str">
         <f t="shared" si="4"/>
-        <v>lclLevelMatrix.push(Cell(3,29,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(2,29,'wall'));</v>
       </c>
       <c r="AI31" t="str">
         <f t="shared" si="5"/>
-        <v>lclLevelMatrix.push(Cell(4,29,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(3,29,'wall'));</v>
       </c>
       <c r="AJ31" t="str">
         <f t="shared" si="6"/>
-        <v>lclLevelMatrix.push(Cell(5,29,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(4,29,'wall'));</v>
       </c>
       <c r="AK31" t="str">
         <f t="shared" si="7"/>
-        <v>lclLevelMatrix.push(Cell(6,29,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(5,29,'wall'));</v>
       </c>
       <c r="AL31" t="str">
         <f t="shared" si="8"/>
-        <v>lclLevelMatrix.push(Cell(7,29,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(6,29,'wall'));</v>
       </c>
       <c r="AM31" t="str">
         <f t="shared" si="9"/>
-        <v>lclLevelMatrix.push(Cell(8,29,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(7,29,'wall'));</v>
       </c>
       <c r="AN31" t="str">
         <f t="shared" si="10"/>
-        <v>lclLevelMatrix.push(Cell(9,29,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(8,29,'wall'));</v>
       </c>
       <c r="AO31" t="str">
         <f t="shared" si="11"/>
-        <v>lclLevelMatrix.push(Cell(10,29,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(9,29,'wall'));</v>
       </c>
       <c r="AP31" t="str">
         <f t="shared" si="12"/>
-        <v>lclLevelMatrix.push(Cell(11,29,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(10,29,'wall'));</v>
       </c>
       <c r="AQ31" t="str">
         <f t="shared" si="13"/>
-        <v>lclLevelMatrix.push(Cell(12,29,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(11,29,'wall'));</v>
       </c>
       <c r="AR31" t="str">
         <f t="shared" si="14"/>
-        <v>lclLevelMatrix.push(Cell(13,29,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(12,29,'wall'));</v>
       </c>
       <c r="AS31" t="str">
         <f t="shared" si="15"/>
-        <v>lclLevelMatrix.push(Cell(14,29,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(13,29,'wall'));</v>
       </c>
       <c r="AT31" t="str">
         <f t="shared" si="16"/>
-        <v>lclLevelMatrix.push(Cell(15,29,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(14,29,'wall'));</v>
       </c>
       <c r="AU31" t="str">
         <f t="shared" si="17"/>
-        <v>lclLevelMatrix.push(Cell(16,29,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(15,29,'wall'));</v>
       </c>
       <c r="AV31" t="str">
         <f t="shared" si="18"/>
-        <v>lclLevelMatrix.push(Cell(17,29,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(16,29,'wall'));</v>
       </c>
       <c r="AW31" t="str">
         <f t="shared" si="19"/>
-        <v>lclLevelMatrix.push(Cell(18,29,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(17,29,'wall'));</v>
       </c>
       <c r="AX31" t="str">
         <f t="shared" si="20"/>
-        <v>lclLevelMatrix.push(Cell(19,29,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(18,29,'wall'));</v>
       </c>
       <c r="AY31" t="str">
         <f t="shared" si="21"/>
-        <v>lclLevelMatrix.push(Cell(20,29,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(19,29,'wall'));</v>
       </c>
       <c r="AZ31" t="str">
         <f t="shared" si="22"/>
-        <v>lclLevelMatrix.push(Cell(21,29,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(20,29,'wall'));</v>
       </c>
       <c r="BA31" t="str">
         <f t="shared" si="23"/>
-        <v>lclLevelMatrix.push(Cell(22,29,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(21,29,'wall'));</v>
       </c>
       <c r="BB31" t="str">
         <f t="shared" si="24"/>
-        <v>lclLevelMatrix.push(Cell(23,29,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(22,29,'wall'));</v>
       </c>
       <c r="BC31" t="str">
         <f t="shared" si="25"/>
-        <v>lclLevelMatrix.push(Cell(24,29,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(23,29,'wall'));</v>
       </c>
       <c r="BD31" t="str">
         <f t="shared" si="26"/>
-        <v>lclLevelMatrix.push(Cell(25,29,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(24,29,'wall'));</v>
       </c>
       <c r="BE31" t="str">
         <f t="shared" si="27"/>
-        <v>lclLevelMatrix.push(Cell(26,29,'wall'));</v>
+        <v>lclLevelMatrix.push(Cell(25,29,'wall'));</v>
       </c>
       <c r="BF31" t="str">
         <f t="shared" si="28"/>
+        <v>lclLevelMatrix.push(Cell(26,29,'wall'));</v>
+      </c>
+      <c r="BG31" t="str">
+        <f t="shared" si="29"/>
         <v>lclLevelMatrix.push(Cell(27,29,'wall'));</v>
       </c>
     </row>
-    <row r="32" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="BF32" s="5"/>
-    </row>
-    <row r="33" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF33" s="5"/>
-    </row>
-    <row r="34" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF34" s="5"/>
-    </row>
-    <row r="35" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF35" s="5"/>
-    </row>
-    <row r="36" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF36" s="5"/>
-    </row>
-    <row r="37" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF37" s="5"/>
-    </row>
-    <row r="38" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF38" s="5"/>
-    </row>
-    <row r="39" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF39" s="5"/>
-    </row>
-    <row r="40" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF40" s="5"/>
-    </row>
-    <row r="41" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF41" s="5"/>
-    </row>
-    <row r="42" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF42" s="5"/>
-    </row>
-    <row r="43" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF43" s="5"/>
-    </row>
-    <row r="44" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF44" s="5"/>
-    </row>
-    <row r="45" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF45" s="5"/>
-    </row>
-    <row r="46" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF46" s="5"/>
-    </row>
-    <row r="47" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF47" s="5"/>
-    </row>
-    <row r="48" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF48" s="5"/>
-    </row>
-    <row r="49" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF49" s="5"/>
-    </row>
-    <row r="50" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF50" s="5"/>
-    </row>
-    <row r="51" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF51" s="5"/>
-    </row>
-    <row r="52" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF52" s="5"/>
-    </row>
-    <row r="53" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF53" s="5"/>
-    </row>
-    <row r="54" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF54" s="5"/>
-    </row>
-    <row r="55" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF55" s="5"/>
-    </row>
-    <row r="56" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF56" s="5"/>
-    </row>
-    <row r="57" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF57" s="5"/>
-    </row>
-    <row r="58" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF58" s="5"/>
-    </row>
-    <row r="59" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF59" s="5"/>
-    </row>
-    <row r="60" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF60" s="5"/>
-    </row>
-    <row r="61" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF61" s="5"/>
-    </row>
-    <row r="62" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF62" s="5"/>
-    </row>
-    <row r="63" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF63" s="5"/>
-    </row>
-    <row r="64" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF64" s="5"/>
-    </row>
-    <row r="65" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF65" s="5"/>
-    </row>
-    <row r="66" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF66" s="5"/>
-    </row>
-    <row r="67" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF67" s="5"/>
-    </row>
-    <row r="68" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF68" s="5"/>
-    </row>
-    <row r="69" spans="58:58" x14ac:dyDescent="0.3">
-      <c r="BF69" s="5"/>
+    <row r="32" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="B32" s="6">
+        <f>B1*$AM$1</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="6">
+        <f t="shared" ref="C32:AC32" si="30">C1*$AM$1</f>
+        <v>20</v>
+      </c>
+      <c r="D32" s="6">
+        <f t="shared" si="30"/>
+        <v>40</v>
+      </c>
+      <c r="E32" s="6">
+        <f t="shared" si="30"/>
+        <v>60</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" si="30"/>
+        <v>80</v>
+      </c>
+      <c r="G32" s="6">
+        <f t="shared" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="H32" s="6">
+        <f t="shared" si="30"/>
+        <v>120</v>
+      </c>
+      <c r="I32" s="6">
+        <f t="shared" si="30"/>
+        <v>140</v>
+      </c>
+      <c r="J32" s="6">
+        <f t="shared" si="30"/>
+        <v>160</v>
+      </c>
+      <c r="K32" s="14">
+        <f t="shared" si="30"/>
+        <v>180</v>
+      </c>
+      <c r="L32" s="6">
+        <f t="shared" si="30"/>
+        <v>200</v>
+      </c>
+      <c r="M32" s="6">
+        <f t="shared" si="30"/>
+        <v>220</v>
+      </c>
+      <c r="N32" s="6">
+        <f t="shared" si="30"/>
+        <v>240</v>
+      </c>
+      <c r="O32" s="14">
+        <f t="shared" si="30"/>
+        <v>260</v>
+      </c>
+      <c r="P32" s="6">
+        <f t="shared" si="30"/>
+        <v>280</v>
+      </c>
+      <c r="Q32" s="6">
+        <f t="shared" si="30"/>
+        <v>300</v>
+      </c>
+      <c r="R32" s="6">
+        <f t="shared" si="30"/>
+        <v>320</v>
+      </c>
+      <c r="S32" s="6">
+        <f t="shared" si="30"/>
+        <v>340</v>
+      </c>
+      <c r="T32" s="14">
+        <f t="shared" si="30"/>
+        <v>360</v>
+      </c>
+      <c r="U32" s="6">
+        <f t="shared" si="30"/>
+        <v>380</v>
+      </c>
+      <c r="V32" s="6">
+        <f t="shared" si="30"/>
+        <v>400</v>
+      </c>
+      <c r="W32" s="6">
+        <f t="shared" si="30"/>
+        <v>420</v>
+      </c>
+      <c r="X32" s="6">
+        <f t="shared" si="30"/>
+        <v>440</v>
+      </c>
+      <c r="Y32" s="6">
+        <f t="shared" si="30"/>
+        <v>460</v>
+      </c>
+      <c r="Z32" s="6">
+        <f t="shared" si="30"/>
+        <v>480</v>
+      </c>
+      <c r="AA32" s="6">
+        <f t="shared" si="30"/>
+        <v>500</v>
+      </c>
+      <c r="AB32" s="6">
+        <f t="shared" si="30"/>
+        <v>520</v>
+      </c>
+      <c r="AC32" s="6">
+        <f t="shared" si="30"/>
+        <v>540</v>
+      </c>
+      <c r="BG32" s="5"/>
+    </row>
+    <row r="33" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG33" s="5"/>
+    </row>
+    <row r="34" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG34" s="5"/>
+    </row>
+    <row r="35" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG35" s="5"/>
+    </row>
+    <row r="36" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG36" s="5"/>
+    </row>
+    <row r="37" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG37" s="5"/>
+    </row>
+    <row r="38" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG38" s="5"/>
+    </row>
+    <row r="39" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG39" s="5"/>
+    </row>
+    <row r="40" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG40" s="5"/>
+    </row>
+    <row r="41" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG41" s="5"/>
+    </row>
+    <row r="42" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG42" s="5"/>
+    </row>
+    <row r="43" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG43" s="5"/>
+    </row>
+    <row r="44" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG44" s="5"/>
+    </row>
+    <row r="45" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG45" s="5"/>
+    </row>
+    <row r="46" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG46" s="5"/>
+    </row>
+    <row r="47" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG47" s="5"/>
+    </row>
+    <row r="48" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG48" s="5"/>
+    </row>
+    <row r="49" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG49" s="5"/>
+    </row>
+    <row r="50" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG50" s="5"/>
+    </row>
+    <row r="51" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG51" s="5"/>
+    </row>
+    <row r="52" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG52" s="5"/>
+    </row>
+    <row r="53" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG53" s="5"/>
+    </row>
+    <row r="54" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG54" s="5"/>
+    </row>
+    <row r="55" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG55" s="5"/>
+    </row>
+    <row r="56" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG56" s="5"/>
+    </row>
+    <row r="57" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG57" s="5"/>
+    </row>
+    <row r="58" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG58" s="5"/>
+    </row>
+    <row r="59" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG59" s="5"/>
+    </row>
+    <row r="60" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG60" s="5"/>
+    </row>
+    <row r="61" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG61" s="5"/>
+    </row>
+    <row r="62" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG62" s="5"/>
+    </row>
+    <row r="63" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG63" s="5"/>
+    </row>
+    <row r="64" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG64" s="5"/>
+    </row>
+    <row r="65" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG65" s="5"/>
+    </row>
+    <row r="66" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG66" s="5"/>
+    </row>
+    <row r="67" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG67" s="5"/>
+    </row>
+    <row r="68" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG68" s="5"/>
+    </row>
+    <row r="69" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG69" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6656,7 +6995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>

--- a/helpers/board.xlsx
+++ b/helpers/board.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -182,11 +182,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -214,6 +240,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,7 +525,7 @@
   <dimension ref="A1:BG69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,7 +699,7 @@
       <c r="S2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="U2" s="2" t="s">
@@ -872,7 +900,7 @@
       <c r="S3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="U3" s="1" t="s">
@@ -1077,7 +1105,7 @@
       <c r="S4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" s="13" t="s">
         <v>0</v>
       </c>
       <c r="U4" s="2" t="s">
@@ -1282,7 +1310,7 @@
       <c r="S5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="T5" s="13" t="s">
         <v>0</v>
       </c>
       <c r="U5" s="2" t="s">
@@ -1487,7 +1515,7 @@
       <c r="S6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="T6" s="13" t="s">
         <v>0</v>
       </c>
       <c r="U6" s="2" t="s">
@@ -1692,7 +1720,7 @@
       <c r="S7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" s="12" t="s">
         <v>1</v>
       </c>
       <c r="U7" s="1" t="s">
@@ -1897,7 +1925,7 @@
       <c r="S8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="T8" s="12" t="s">
         <v>1</v>
       </c>
       <c r="U8" s="2" t="s">
@@ -2102,7 +2130,7 @@
       <c r="S9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T9" s="12" t="s">
         <v>1</v>
       </c>
       <c r="U9" s="2" t="s">
@@ -2307,7 +2335,7 @@
       <c r="S10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="T10" s="13" t="s">
         <v>0</v>
       </c>
       <c r="U10" s="2" t="s">
@@ -2512,7 +2540,7 @@
       <c r="S11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="T11" s="13" t="s">
         <v>0</v>
       </c>
       <c r="U11" s="2" t="s">
@@ -2717,7 +2745,7 @@
       <c r="S12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="T12" s="12" t="s">
         <v>1</v>
       </c>
       <c r="U12" s="1" t="s">
@@ -2865,94 +2893,94 @@
       </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="15">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2" t="s">
+      <c r="B13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="O13" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="P13" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="Q13" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="R13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD13">
+      <c r="R13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="U13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="V13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="X13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="11">
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
@@ -3127,7 +3155,7 @@
       <c r="S14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="T14" s="12" t="s">
         <v>1</v>
       </c>
       <c r="U14" s="2" t="s">
@@ -3332,7 +3360,7 @@
       <c r="S15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="T15" s="12" t="s">
         <v>1</v>
       </c>
       <c r="U15" s="2" t="s">
@@ -3537,7 +3565,7 @@
       <c r="S16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="T16" s="12" t="s">
         <v>1</v>
       </c>
       <c r="U16" s="2" t="s">
@@ -3742,7 +3770,7 @@
       <c r="S17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="T17" s="12" t="s">
         <v>1</v>
       </c>
       <c r="U17" s="2" t="s">

--- a/helpers/board.xlsx
+++ b/helpers/board.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -525,7 +525,7 @@
   <dimension ref="A1:BG69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="AE20" sqref="AE20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/helpers/board.xlsx
+++ b/helpers/board.xlsx
@@ -212,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -242,6 +242,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,7 +528,7 @@
   <dimension ref="A1:BG69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE20" sqref="AE20"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,7 +577,7 @@
       <c r="M1">
         <v>11</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="7">
         <v>12</v>
       </c>
       <c r="O1">
@@ -3918,7 +3921,7 @@
       </c>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="7">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -3957,7 +3960,7 @@
       <c r="M18" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N18" s="9" t="s">
+      <c r="N18" s="17" t="s">
         <v>1</v>
       </c>
       <c r="O18" s="8" t="s">

--- a/helpers/board.xlsx
+++ b/helpers/board.xlsx
@@ -85,7 +85,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +107,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -245,6 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,7 +535,7 @@
   <dimension ref="A1:BG69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="S12" sqref="S12:T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3749,7 +3756,7 @@
       <c r="K17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="18" t="s">
         <v>0</v>
       </c>
       <c r="M17" s="2" t="s">
